--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\OneDrive\Desktop\Git Clones\Excel-Imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2585EF3-7C1E-4F33-8661-14EF3BDC7E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD3C71C-507B-4F76-86E0-82198D281FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="3330" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="108">
   <si>
     <t>Email</t>
   </si>
@@ -272,16 +272,94 @@
   </si>
   <si>
     <t>Full Name</t>
+  </si>
+  <si>
+    <t>Unit ID</t>
+  </si>
+  <si>
+    <t>asdf123</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>asdf124</t>
+  </si>
+  <si>
+    <t>asdf125</t>
+  </si>
+  <si>
+    <t>asdf126</t>
+  </si>
+  <si>
+    <t>asdf127</t>
+  </si>
+  <si>
+    <t>asdf128</t>
+  </si>
+  <si>
+    <t>asdf129</t>
+  </si>
+  <si>
+    <t>asdf130</t>
+  </si>
+  <si>
+    <t>asdf131</t>
+  </si>
+  <si>
+    <t>asdf132</t>
+  </si>
+  <si>
+    <t>asdf133</t>
+  </si>
+  <si>
+    <t>asdf134</t>
+  </si>
+  <si>
+    <t>asdf135</t>
+  </si>
+  <si>
+    <t>asdf136</t>
+  </si>
+  <si>
+    <t>asdf137</t>
+  </si>
+  <si>
+    <t>asdf138</t>
+  </si>
+  <si>
+    <t>asdf139</t>
+  </si>
+  <si>
+    <t>asdf140</t>
+  </si>
+  <si>
+    <t>asdf141</t>
+  </si>
+  <si>
+    <t>asdf142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Nice </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -615,7 +693,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +701,7 @@
     <col min="1" max="1" width="56.85546875" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="56.7109375" customWidth="1"/>
     <col min="5" max="5" width="86.42578125" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
@@ -642,6 +720,12 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -656,6 +740,12 @@
       <c r="D2" t="s">
         <v>78</v>
       </c>
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" t="s">
+        <v>87</v>
+      </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -671,6 +761,12 @@
       <c r="D3" t="s">
         <v>74</v>
       </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>87</v>
+      </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -686,6 +782,12 @@
       <c r="D4" t="s">
         <v>70</v>
       </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
+        <v>87</v>
+      </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -701,6 +803,12 @@
       <c r="D5" t="s">
         <v>66</v>
       </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -716,6 +824,12 @@
       <c r="D6" t="s">
         <v>62</v>
       </c>
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -731,6 +845,12 @@
       <c r="D7" t="s">
         <v>58</v>
       </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -746,6 +866,12 @@
       <c r="D8" t="s">
         <v>54</v>
       </c>
+      <c r="E8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -760,6 +886,12 @@
       <c r="D9" t="s">
         <v>50</v>
       </c>
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -774,6 +906,12 @@
       <c r="D10" t="s">
         <v>46</v>
       </c>
+      <c r="E10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -788,6 +926,12 @@
       <c r="D11" t="s">
         <v>42</v>
       </c>
+      <c r="E11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -802,6 +946,12 @@
       <c r="D12" t="s">
         <v>38</v>
       </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -816,6 +966,12 @@
       <c r="D13" t="s">
         <v>34</v>
       </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -830,6 +986,12 @@
       <c r="D14" t="s">
         <v>30</v>
       </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -844,6 +1006,12 @@
       <c r="D15" t="s">
         <v>26</v>
       </c>
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -858,8 +1026,14 @@
       <c r="D16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -872,8 +1046,14 @@
       <c r="D17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -886,8 +1066,14 @@
       <c r="D18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -900,8 +1086,14 @@
       <c r="D19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -914,8 +1106,14 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -928,8 +1126,15 @@
       <c r="D21" t="s">
         <v>2</v>
       </c>
+      <c r="E21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\OneDrive\Desktop\Git Clones\Excel-Imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78324FD5-3936-4FF4-AA5F-2B1CE8D9A5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED82396A-2F79-4122-B386-64B09D0FE60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="3420" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,54 +205,6 @@
     <t>(534) 741-8866</t>
   </si>
   <si>
-    <t>563 Queen St., St. John's, BC, Q1E 8A5</t>
-  </si>
-  <si>
-    <t>3435 Cedar Ln., St. John's, AB, M4D 3M6</t>
-  </si>
-  <si>
-    <t>1654 Queen St., Halifax, NB, P5K 9D1</t>
-  </si>
-  <si>
-    <t>119 Birch Blvd., Calgary, SK, H6E 5K9</t>
-  </si>
-  <si>
-    <t>4899 Queen St., Vancouver, BC, O5V 8V7</t>
-  </si>
-  <si>
-    <t>134 Pine Ave., Winnipeg, MB, R3V 2Y2</t>
-  </si>
-  <si>
-    <t>7752 King Rd., Winnipeg, SK, O1Y 7P8</t>
-  </si>
-  <si>
-    <t>3130 Elm Dr., Fredericton, SK, B7V 4K4</t>
-  </si>
-  <si>
-    <t>4278 Elm Dr., Charlottetown, BC, F4N 4S5</t>
-  </si>
-  <si>
-    <t>579 King Rd., Regina, NL, V2A 9U4</t>
-  </si>
-  <si>
-    <t>3200 Cedar Ln., Calgary, ON, J6D 8H4</t>
-  </si>
-  <si>
-    <t>4483 Oak St., Fredericton, BC, L6K 9D8</t>
-  </si>
-  <si>
-    <t>9801 Elm Dr., Fredericton, NL, V6V 7J3</t>
-  </si>
-  <si>
-    <t>6029 Main St., Vancouver, ON, I9Q 6C3</t>
-  </si>
-  <si>
-    <t>4258 Oak St., Toronto, PE, F5C 8P8</t>
-  </si>
-  <si>
-    <t>1685 Queen St., Charlottetown, NL, R9S 4C1</t>
-  </si>
-  <si>
     <t>unit-8237</t>
   </si>
   <si>
@@ -340,16 +292,64 @@
     <t>Average</t>
   </si>
   <si>
-    <t>9998 Birch Blvd., Toronto, NL, E5V 8C4</t>
-  </si>
-  <si>
-    <t>4947 Maple St., Regina , SK, E1R 7D4</t>
-  </si>
-  <si>
-    <t>766 Birch Blvd., charletown PE, Q2Q 3M1</t>
-  </si>
-  <si>
-    <t>2789 Oak St., Calgary, MB</t>
+    <t>2789 Oak St., Calgary</t>
+  </si>
+  <si>
+    <t>4947 Maple St., Regina , SK</t>
+  </si>
+  <si>
+    <t>119 Birch Blvd., Calgary, SK</t>
+  </si>
+  <si>
+    <t>4899 Queen St., Vancouver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134 Pine Ave., Winnipeg, MB, </t>
+  </si>
+  <si>
+    <t>7752 King Rd., Winnipeg,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3130 Elm Dr., Fredericton, </t>
+  </si>
+  <si>
+    <t>4278 Elm Dr., Charlottetown, BC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">579 King Rd., Regina, </t>
+  </si>
+  <si>
+    <t>3200 Cedar Ln., Calgary,</t>
+  </si>
+  <si>
+    <t>4483 Oak St., Fredericton, BC</t>
+  </si>
+  <si>
+    <t>9801 Elm Dr., Fredericton, NL</t>
+  </si>
+  <si>
+    <t>6029 Main St., Vancouver,</t>
+  </si>
+  <si>
+    <t>4258 Oak St., Toronto, PE</t>
+  </si>
+  <si>
+    <t>1685 Queen St., Charlottetown,, R9S 4C1</t>
+  </si>
+  <si>
+    <t>9998 Birch Blvd., Toronto, NL, L5M6N4</t>
+  </si>
+  <si>
+    <t>563 Queen St., St. John's, BC, M6H 9J0</t>
+  </si>
+  <si>
+    <t>3435 Cedar Ln., St. John's, AB, P0O9K8</t>
+  </si>
+  <si>
+    <t>766 Birch Blvd., charletown PE, L8K7J6</t>
+  </si>
+  <si>
+    <t>1654 Queen St., Halifax, NB, P1K3L4</t>
   </si>
 </sst>
 </file>
@@ -720,11 +720,12 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
     <col min="4" max="4" width="69.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -762,16 +763,16 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -785,16 +786,16 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -808,16 +809,16 @@
         <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -834,13 +835,13 @@
         <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -854,16 +855,16 @@
         <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -877,16 +878,16 @@
         <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
         <v>82</v>
       </c>
-      <c r="F7" t="s">
-        <v>98</v>
-      </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -900,16 +901,16 @@
         <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -923,16 +924,16 @@
         <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -946,16 +947,16 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -969,16 +970,16 @@
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -992,16 +993,16 @@
         <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" t="s">
         <v>87</v>
-      </c>
-      <c r="F12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1015,16 +1016,16 @@
         <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1038,16 +1039,16 @@
         <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1061,16 +1062,16 @@
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1084,16 +1085,16 @@
         <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1107,16 +1108,16 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1130,16 +1131,16 @@
         <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1153,16 +1154,16 @@
         <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1176,16 +1177,16 @@
         <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1199,16 +1200,16 @@
         <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\OneDrive\Desktop\Git Clones\Excel-Imports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raif/PycharmProjects/Excel-Imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD3C71C-507B-4F76-86E0-82198D281FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E877AC7-0BC8-3D46-80F0-6491BC905190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -256,9 +256,6 @@
     <t>Jason Dudley</t>
   </si>
   <si>
-    <t>36801 Kevin Harbors Apt. 656, Port Laurenport, MD 59547</t>
-  </si>
-  <si>
     <t>028-612-8297</t>
   </si>
   <si>
@@ -344,6 +341,9 @@
   </si>
   <si>
     <t xml:space="preserve">Not Nice </t>
+  </si>
+  <si>
+    <t>36801 Kevin Harbors Apt. 656, Port Laurenport, MD 59547, USA</t>
   </si>
 </sst>
 </file>
@@ -692,63 +692,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
-    <col min="4" max="4" width="56.7109375" customWidth="1"/>
-    <col min="5" max="5" width="86.42578125" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="56.83203125" customWidth="1"/>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="56.6640625" customWidth="1"/>
+    <col min="5" max="5" width="86.5" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" t="s">
         <v>84</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" t="s">
-        <v>87</v>
-      </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -762,14 +762,14 @@
         <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -783,14 +783,14 @@
         <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -804,14 +804,14 @@
         <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -825,14 +825,14 @@
         <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -846,14 +846,14 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -867,13 +867,13 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -887,13 +887,13 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -907,13 +907,13 @@
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -927,13 +927,13 @@
         <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -947,13 +947,13 @@
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -967,13 +967,13 @@
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -987,13 +987,13 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1007,13 +1007,13 @@
         <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1027,13 +1027,13 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1047,13 +1047,13 @@
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1067,13 +1067,13 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1087,13 +1087,13 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1107,13 +1107,13 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1127,10 +1127,10 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" t="s">
         <v>106</v>
-      </c>
-      <c r="F21" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29122"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\OneDrive\Desktop\Git Clones\Excel-Imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB69C22-4EA2-471F-BBA1-01551312F4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAD5EC21-371E-4DDE-870C-3A7E6213BFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5130" yWindow="3855" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>Full Name</t>
   </si>
@@ -43,137 +59,140 @@
     <t>Owner</t>
   </si>
   <si>
-    <t>Jane Taylor</t>
+    <t>One</t>
+  </si>
+  <si>
+    <t>jane.taylor@example.com</t>
+  </si>
+  <si>
+    <t>(873) 308-3608</t>
+  </si>
+  <si>
+    <t>9998 Birch Blvd., Toronto, NL, L5M6N4</t>
+  </si>
+  <si>
+    <t>unit-8237</t>
+  </si>
+  <si>
+    <t>Semi-Detached</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>daniel.williams@example.com</t>
+  </si>
+  <si>
+    <t>(975) 350-1446</t>
+  </si>
+  <si>
+    <t>563 Queen St., St. John's, BC, M6H 9J0</t>
+  </si>
+  <si>
+    <t>unit-3153</t>
+  </si>
+  <si>
+    <t>Apartment</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>jane.williams@example.com</t>
+  </si>
+  <si>
+    <t>(354) 417-2164</t>
+  </si>
+  <si>
+    <t>3435 Cedar Ln., St. John's, AB, P0O9K8</t>
+  </si>
+  <si>
+    <t>unit-3838</t>
   </si>
   <si>
     <t>Daniel Williams</t>
   </si>
   <si>
-    <t>Jane Williams</t>
+    <t>(664) 675-3997</t>
+  </si>
+  <si>
+    <t>766 Birch Blvd., charletown, PE, L8K7J6</t>
+  </si>
+  <si>
+    <t>unit-4970</t>
   </si>
   <si>
     <t>Alice Williams</t>
   </si>
   <si>
+    <t>alice.williams@example.com</t>
+  </si>
+  <si>
+    <t>(771) 355-6101</t>
+  </si>
+  <si>
+    <t>1654 Queen St., Halifax, NB, P1K3L4</t>
+  </si>
+  <si>
+    <t>unit-8443</t>
+  </si>
+  <si>
+    <t>Townhouse</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
     <t>Jane Davis</t>
   </si>
   <si>
-    <t>jane.taylor@example.com</t>
-  </si>
-  <si>
-    <t>daniel.williams@example.com</t>
-  </si>
-  <si>
-    <t>jane.williams@example.com</t>
-  </si>
-  <si>
-    <t>alice.williams@example.com</t>
-  </si>
-  <si>
     <t>jane.davis@example.com</t>
   </si>
   <si>
-    <t>(873) 308-3608</t>
-  </si>
-  <si>
-    <t>(975) 350-1446</t>
-  </si>
-  <si>
-    <t>(354) 417-2164</t>
-  </si>
-  <si>
-    <t>(664) 675-3997</t>
-  </si>
-  <si>
-    <t>(771) 355-6101</t>
-  </si>
-  <si>
     <t>(912) 398-1617</t>
   </si>
   <si>
-    <t>unit-8237</t>
-  </si>
-  <si>
-    <t>unit-3153</t>
-  </si>
-  <si>
-    <t>unit-3838</t>
-  </si>
-  <si>
-    <t>unit-4970</t>
-  </si>
-  <si>
-    <t>unit-8443</t>
+    <t>4947 Maple St., Regina , SK</t>
   </si>
   <si>
     <t>unit-4493</t>
   </si>
   <si>
-    <t>Semi-Detached</t>
-  </si>
-  <si>
-    <t>Apartment</t>
-  </si>
-  <si>
-    <t>Townhouse</t>
-  </si>
-  <si>
-    <t>Great</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Premium</t>
-  </si>
-  <si>
     <t>Average</t>
   </si>
   <si>
-    <t>4947 Maple St., Regina , SK</t>
-  </si>
-  <si>
-    <t>9998 Birch Blvd., Toronto, NL, L5M6N4</t>
-  </si>
-  <si>
-    <t>563 Queen St., St. John's, BC, M6H 9J0</t>
-  </si>
-  <si>
-    <t>3435 Cedar Ln., St. John's, AB, P0O9K8</t>
-  </si>
-  <si>
-    <t>766 Birch Blvd., charletown PE, L8K7J6</t>
-  </si>
-  <si>
-    <t>1654 Queen St., Halifax, NB, P1K3L4</t>
-  </si>
-  <si>
     <t>4948 Maple St., Regina , SK</t>
   </si>
   <si>
+    <t>unit-4494</t>
+  </si>
+  <si>
     <t>4949 Maple St., Regina , SK</t>
   </si>
   <si>
+    <t>unit-4495</t>
+  </si>
+  <si>
+    <t>(912) 398-1618</t>
+  </si>
+  <si>
     <t>4950 Maple St., Regina , SK</t>
   </si>
   <si>
-    <t>unit-4494</t>
-  </si>
-  <si>
-    <t>unit-4495</t>
-  </si>
-  <si>
     <t>unit-4496</t>
-  </si>
-  <si>
-    <t>(912) 398-1618</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,17 +562,21 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
     <col min="4" max="4" width="69.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
     <col min="7" max="7" width="52.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,205 +599,205 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
       </c>
       <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
         <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
       </c>
       <c r="E9" t="s">
         <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
         <v>48</v>
       </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\OneDrive\Desktop\Git Clones\Excel-Imports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\OneDrive\Desktop\Git Clones\Excel-Imports-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAD5EC21-371E-4DDE-870C-3A7E6213BFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537F764B-B315-4E80-828F-C6E7E370C785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="3855" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,172 +36,212 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
-  <si>
-    <t>Full Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
-    <t>Unit ID</t>
-  </si>
-  <si>
-    <t>Unit Type</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>One</t>
-  </si>
-  <si>
-    <t>jane.taylor@example.com</t>
-  </si>
-  <si>
-    <t>(873) 308-3608</t>
-  </si>
-  <si>
-    <t>9998 Birch Blvd., Toronto, NL, L5M6N4</t>
-  </si>
-  <si>
-    <t>unit-8237</t>
-  </si>
-  <si>
-    <t>Semi-Detached</t>
-  </si>
-  <si>
-    <t>Great</t>
-  </si>
-  <si>
-    <t>Two</t>
-  </si>
-  <si>
-    <t>daniel.williams@example.com</t>
-  </si>
-  <si>
-    <t>(975) 350-1446</t>
-  </si>
-  <si>
-    <t>563 Queen St., St. John's, BC, M6H 9J0</t>
-  </si>
-  <si>
-    <t>unit-3153</t>
-  </si>
-  <si>
-    <t>Apartment</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Three</t>
-  </si>
-  <si>
-    <t>jane.williams@example.com</t>
-  </si>
-  <si>
-    <t>(354) 417-2164</t>
-  </si>
-  <si>
-    <t>3435 Cedar Ln., St. John's, AB, P0O9K8</t>
-  </si>
-  <si>
-    <t>unit-3838</t>
-  </si>
-  <si>
-    <t>Daniel Williams</t>
-  </si>
-  <si>
-    <t>(664) 675-3997</t>
-  </si>
-  <si>
-    <t>766 Birch Blvd., charletown, PE, L8K7J6</t>
-  </si>
-  <si>
-    <t>unit-4970</t>
-  </si>
-  <si>
-    <t>Alice Williams</t>
-  </si>
-  <si>
-    <t>alice.williams@example.com</t>
-  </si>
-  <si>
-    <t>(771) 355-6101</t>
-  </si>
-  <si>
-    <t>1654 Queen St., Halifax, NB, P1K3L4</t>
-  </si>
-  <si>
-    <t>unit-8443</t>
-  </si>
-  <si>
-    <t>Townhouse</t>
-  </si>
-  <si>
-    <t>Premium</t>
-  </si>
-  <si>
-    <t>Jane Davis</t>
-  </si>
-  <si>
-    <t>jane.davis@example.com</t>
-  </si>
-  <si>
-    <t>(912) 398-1617</t>
-  </si>
-  <si>
-    <t>4947 Maple St., Regina , SK</t>
-  </si>
-  <si>
-    <t>unit-4493</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>4948 Maple St., Regina , SK</t>
-  </si>
-  <si>
-    <t>unit-4494</t>
-  </si>
-  <si>
-    <t>4949 Maple St., Regina , SK</t>
-  </si>
-  <si>
-    <t>unit-4495</t>
-  </si>
-  <si>
-    <t>(912) 398-1618</t>
-  </si>
-  <si>
-    <t>4950 Maple St., Regina , SK</t>
-  </si>
-  <si>
-    <t>unit-4496</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State / Province</t>
+  </si>
+  <si>
+    <t>Postal Code / Zip</t>
+  </si>
+  <si>
+    <t>Residential</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>1 Mossbank Drive</t>
+  </si>
+  <si>
+    <t>Brampton</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>L6W 3Z2</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>113 Eaglewood Boulevard</t>
+  </si>
+  <si>
+    <t>Mississauga</t>
+  </si>
+  <si>
+    <t>L5G 1V8</t>
+  </si>
+  <si>
+    <t>Nilou</t>
+  </si>
+  <si>
+    <t>22 Kestell Lane, North York</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>M3A 2Z1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parm </t>
+  </si>
+  <si>
+    <t>38 Verity Court</t>
+  </si>
+  <si>
+    <t>L6Y 2L7</t>
+  </si>
+  <si>
+    <t>Stateline</t>
+  </si>
+  <si>
+    <t>3033 Dundas Street West</t>
+  </si>
+  <si>
+    <t>L5L 3R8</t>
+  </si>
+  <si>
+    <t>Greg Akouris</t>
+  </si>
+  <si>
+    <t>254 Evelyn Avenue, Old Toronto</t>
+  </si>
+  <si>
+    <t>M6P 2Z9</t>
+  </si>
+  <si>
+    <t>Lina Simone</t>
+  </si>
+  <si>
+    <t>606 Glencairn Avenue, North York</t>
+  </si>
+  <si>
+    <t>M6B 1Z5</t>
+  </si>
+  <si>
+    <t>Manuel Frias</t>
+  </si>
+  <si>
+    <t>255 Hillside Drive</t>
+  </si>
+  <si>
+    <t>L5M 1G4</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>23 Stalbridge Avenue</t>
+  </si>
+  <si>
+    <t>L6Y 4H1</t>
+  </si>
+  <si>
+    <t>Contact Person</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>(416) 565-4533</t>
+  </si>
+  <si>
+    <t>(416) 553-2450</t>
+  </si>
+  <si>
+    <t>lisakahn@rogers.com</t>
+  </si>
+  <si>
+    <t>(416) 528-0181</t>
+  </si>
+  <si>
+    <t>Parm</t>
+  </si>
+  <si>
+    <t>(647) 447-3900</t>
+  </si>
+  <si>
+    <t>parmjotkaur88@yahoo.com</t>
+  </si>
+  <si>
+    <t>stateline_builder@hotmail.com</t>
+  </si>
+  <si>
+    <t>(416) 662-4030</t>
+  </si>
+  <si>
+    <t>gakouris@gmail.com</t>
+  </si>
+  <si>
+    <t>Lina</t>
+  </si>
+  <si>
+    <t>(416) 357-9297</t>
+  </si>
+  <si>
+    <t>calabrialinaml@gmail.com</t>
+  </si>
+  <si>
+    <t>(905) 826-4516</t>
+  </si>
+  <si>
+    <t>manuelfrias@rogers.com</t>
+  </si>
+  <si>
+    <t>(416) 899-8225</t>
+  </si>
+  <si>
+    <t>nadre.mark@hotmail.com</t>
+  </si>
+  <si>
+    <t>Joanne</t>
+  </si>
+  <si>
+    <t>43 Woodcrest Drive, Etobicoke</t>
+  </si>
+  <si>
+    <t>M9A 4J3</t>
+  </si>
+  <si>
+    <t>(416) 249-1066</t>
+  </si>
+  <si>
+    <t>joanne8384@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -214,6 +254,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -223,7 +268,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -231,30 +276,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,13 +588,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="41.28515625" customWidth="1"/>
@@ -573,235 +602,407 @@
     <col min="4" max="4" width="69.5703125" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="52.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1">
+        <v>5259</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="2">
+        <v>45854</v>
+      </c>
+      <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5258</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="2">
+        <v>45854</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5257</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="2">
+        <v>45854</v>
+      </c>
+      <c r="L4" s="1"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5256</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="2">
+        <v>45854</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5255</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="2">
+        <v>45854</v>
+      </c>
+      <c r="L6" s="1"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5254</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="2">
+        <v>45853</v>
+      </c>
+      <c r="L7" s="1"/>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5253</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="2">
+        <v>45853</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5252</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
+      <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s">
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="2">
+        <v>45853</v>
+      </c>
+      <c r="L9" s="1"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5251</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
+      <c r="H10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="2">
+        <v>45852</v>
+      </c>
+      <c r="L10" s="1"/>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5250</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="2">
+        <v>45852</v>
+      </c>
+      <c r="L11" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\OneDrive\Desktop\Git Clones\Excel-Imports-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D64086-7F19-4135-8503-19C476D083B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61FE9161-5481-4656-9EBF-1EF939C24045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1965" yWindow="2865" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -249,7 +249,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,7 +645,7 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="41.28515625" customWidth="1"/>
@@ -660,7 +660,7 @@
     <col min="11" max="11" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -690,7 +690,7 @@
       <c r="N1" s="2"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -714,7 +714,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="23.25">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="23.25">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -768,7 +768,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -792,7 +792,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="23.25">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -820,7 +820,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="23.25">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -848,7 +848,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="23.25">
       <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
@@ -876,7 +876,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="23.25">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
@@ -904,7 +904,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="23.25">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
@@ -930,7 +930,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="23.25">
       <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
@@ -958,7 +958,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -982,7 +982,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="23.25">
       <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
@@ -1010,7 +1010,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="23.25">
       <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
@@ -1038,7 +1038,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="5" t="s">
         <v>57</v>
       </c>
@@ -1064,7 +1064,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="23.25">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -1092,7 +1092,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="23.25">
       <c r="A17" s="5" t="s">
         <v>65</v>
       </c>
@@ -1120,7 +1120,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1136,7 +1136,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1152,7 +1152,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1168,7 +1168,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1184,7 +1184,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1200,7 +1200,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1216,7 +1216,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1232,7 +1232,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1248,7 +1248,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1264,7 +1264,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1280,7 +1280,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1296,7 +1296,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1312,7 +1312,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1328,7 +1328,7 @@
       <c r="N30" s="2"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1343,7 +1343,7 @@
       <c r="N31" s="2"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1358,7 +1358,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1373,7 +1373,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1388,7 +1388,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1403,7 +1403,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1418,7 +1418,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1433,7 +1433,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1448,7 +1448,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1463,7 +1463,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1478,7 +1478,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1493,7 +1493,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1508,7 +1508,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1523,7 +1523,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1538,7 +1538,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1553,7 +1553,7 @@
       <c r="N45" s="2"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1568,7 +1568,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1583,7 +1583,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1598,7 +1598,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1613,7 +1613,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1628,7 +1628,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1643,7 +1643,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1658,7 +1658,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1673,7 +1673,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1688,7 +1688,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1703,7 +1703,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1718,7 +1718,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1733,7 +1733,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1748,7 +1748,7 @@
       <c r="N58" s="2"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1763,7 +1763,7 @@
       <c r="N59" s="2"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1778,7 +1778,7 @@
       <c r="N60" s="2"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1793,7 +1793,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1808,7 +1808,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1823,7 +1823,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1838,7 +1838,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1853,7 +1853,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1868,7 +1868,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1883,7 +1883,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1898,7 +1898,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1913,7 +1913,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1928,7 +1928,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1943,7 +1943,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1958,7 +1958,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1973,7 +1973,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1988,7 +1988,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2003,7 +2003,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2018,7 +2018,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2033,7 +2033,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2048,7 +2048,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2063,7 +2063,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2078,7 +2078,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2093,7 +2093,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2108,7 +2108,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2123,7 +2123,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2138,7 +2138,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2153,7 +2153,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2168,7 +2168,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2183,7 +2183,7 @@
       <c r="N87" s="2"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2198,7 +2198,7 @@
       <c r="N88" s="2"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2213,7 +2213,7 @@
       <c r="N89" s="2"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2228,7 +2228,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2243,7 +2243,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2258,7 +2258,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2273,7 +2273,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2288,7 +2288,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2303,7 +2303,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2318,7 +2318,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2333,7 +2333,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2348,7 +2348,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2363,7 +2363,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2378,7 +2378,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2393,7 +2393,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2408,7 +2408,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2423,7 +2423,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2438,7 +2438,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2453,7 +2453,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2468,7 +2468,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2483,7 +2483,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2498,7 +2498,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2513,7 +2513,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2528,7 +2528,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2543,7 +2543,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2558,7 +2558,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -2573,7 +2573,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -2588,7 +2588,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -2603,7 +2603,7 @@
       <c r="N115" s="2"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -2618,7 +2618,7 @@
       <c r="N116" s="2"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -2633,7 +2633,7 @@
       <c r="N117" s="2"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -2648,7 +2648,7 @@
       <c r="N118" s="2"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -2663,7 +2663,7 @@
       <c r="N119" s="2"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -2678,7 +2678,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -2693,7 +2693,7 @@
       <c r="N121" s="2"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -2708,7 +2708,7 @@
       <c r="N122" s="2"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -2723,7 +2723,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -2738,7 +2738,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -2753,7 +2753,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -2768,7 +2768,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -2783,7 +2783,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -2798,7 +2798,7 @@
       <c r="N128" s="2"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -2813,7 +2813,7 @@
       <c r="N129" s="2"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -2828,7 +2828,7 @@
       <c r="N130" s="2"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -2843,7 +2843,7 @@
       <c r="N131" s="2"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -2858,7 +2858,7 @@
       <c r="N132" s="2"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -2873,7 +2873,7 @@
       <c r="N133" s="2"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -2888,7 +2888,7 @@
       <c r="N134" s="2"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -2903,7 +2903,7 @@
       <c r="N135" s="2"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -2918,7 +2918,7 @@
       <c r="N136" s="2"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -2933,7 +2933,7 @@
       <c r="N137" s="2"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -2948,7 +2948,7 @@
       <c r="N138" s="2"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -2963,7 +2963,7 @@
       <c r="N139" s="2"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -2978,7 +2978,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -2993,7 +2993,7 @@
       <c r="N141" s="2"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -3008,7 +3008,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -3023,7 +3023,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -3038,7 +3038,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -3053,7 +3053,7 @@
       <c r="N145" s="2"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3068,7 +3068,7 @@
       <c r="N146" s="2"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -3083,7 +3083,7 @@
       <c r="N147" s="2"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -3098,7 +3098,7 @@
       <c r="N148" s="2"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -3113,7 +3113,7 @@
       <c r="N149" s="2"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -3128,7 +3128,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -3143,7 +3143,7 @@
       <c r="N151" s="2"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -3158,7 +3158,7 @@
       <c r="N152" s="2"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -3173,7 +3173,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -3188,7 +3188,7 @@
       <c r="N154" s="2"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -3203,7 +3203,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -3218,7 +3218,7 @@
       <c r="N156" s="2"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -3233,7 +3233,7 @@
       <c r="N157" s="2"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -3248,7 +3248,7 @@
       <c r="N158" s="2"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -3263,7 +3263,7 @@
       <c r="N159" s="2"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -3278,7 +3278,7 @@
       <c r="N160" s="2"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -3293,7 +3293,7 @@
       <c r="N161" s="2"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -3308,7 +3308,7 @@
       <c r="N162" s="2"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -3323,7 +3323,7 @@
       <c r="N163" s="2"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -3338,7 +3338,7 @@
       <c r="N164" s="2"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -3353,7 +3353,7 @@
       <c r="N165" s="2"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -3368,7 +3368,7 @@
       <c r="N166" s="2"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -3383,7 +3383,7 @@
       <c r="N167" s="2"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -3398,7 +3398,7 @@
       <c r="N168" s="2"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -3413,7 +3413,7 @@
       <c r="N169" s="2"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -3428,7 +3428,7 @@
       <c r="N170" s="2"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -3443,7 +3443,7 @@
       <c r="N171" s="2"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -3458,7 +3458,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -3473,7 +3473,7 @@
       <c r="N173" s="2"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -3488,7 +3488,7 @@
       <c r="N174" s="2"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -3503,7 +3503,7 @@
       <c r="N175" s="2"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -3518,7 +3518,7 @@
       <c r="N176" s="2"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -3533,7 +3533,7 @@
       <c r="N177" s="2"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -3548,7 +3548,7 @@
       <c r="N178" s="2"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -3563,7 +3563,7 @@
       <c r="N179" s="2"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -3578,7 +3578,7 @@
       <c r="N180" s="2"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -3593,7 +3593,7 @@
       <c r="N181" s="2"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -3608,7 +3608,7 @@
       <c r="N182" s="2"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -3623,7 +3623,7 @@
       <c r="N183" s="2"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -3638,7 +3638,7 @@
       <c r="N184" s="2"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -3653,7 +3653,7 @@
       <c r="N185" s="2"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -3668,7 +3668,7 @@
       <c r="N186" s="2"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -3683,7 +3683,7 @@
       <c r="N187" s="2"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -3698,7 +3698,7 @@
       <c r="N188" s="2"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -3713,7 +3713,7 @@
       <c r="N189" s="2"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -3728,7 +3728,7 @@
       <c r="N190" s="2"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -3743,7 +3743,7 @@
       <c r="N191" s="2"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -3758,7 +3758,7 @@
       <c r="N192" s="2"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -3773,7 +3773,7 @@
       <c r="N193" s="2"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -3788,7 +3788,7 @@
       <c r="N194" s="2"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -3803,7 +3803,7 @@
       <c r="N195" s="2"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -3818,7 +3818,7 @@
       <c r="N196" s="2"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -3833,7 +3833,7 @@
       <c r="N197" s="2"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -3848,7 +3848,7 @@
       <c r="N198" s="2"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -3863,7 +3863,7 @@
       <c r="N199" s="2"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -3878,7 +3878,7 @@
       <c r="N200" s="2"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -3893,7 +3893,7 @@
       <c r="N201" s="2"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -3908,7 +3908,7 @@
       <c r="N202" s="2"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -3923,7 +3923,7 @@
       <c r="N203" s="2"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -3938,7 +3938,7 @@
       <c r="N204" s="2"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -3953,7 +3953,7 @@
       <c r="N205" s="2"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -3968,7 +3968,7 @@
       <c r="N206" s="2"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -3983,7 +3983,7 @@
       <c r="N207" s="2"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -3998,7 +3998,7 @@
       <c r="N208" s="2"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -4013,7 +4013,7 @@
       <c r="N209" s="2"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -4028,7 +4028,7 @@
       <c r="N210" s="2"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -4043,7 +4043,7 @@
       <c r="N211" s="2"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -4058,7 +4058,7 @@
       <c r="N212" s="2"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -4073,7 +4073,7 @@
       <c r="N213" s="2"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -4088,7 +4088,7 @@
       <c r="N214" s="2"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -4103,7 +4103,7 @@
       <c r="N215" s="2"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -4118,7 +4118,7 @@
       <c r="N216" s="2"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -4133,7 +4133,7 @@
       <c r="N217" s="2"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -4148,7 +4148,7 @@
       <c r="N218" s="2"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -4163,7 +4163,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -4178,7 +4178,7 @@
       <c r="N220" s="2"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -4193,7 +4193,7 @@
       <c r="N221" s="2"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -4208,7 +4208,7 @@
       <c r="N222" s="2"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -4223,7 +4223,7 @@
       <c r="N223" s="2"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -4238,7 +4238,7 @@
       <c r="N224" s="2"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -4253,7 +4253,7 @@
       <c r="N225" s="2"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -4268,7 +4268,7 @@
       <c r="N226" s="2"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -4283,7 +4283,7 @@
       <c r="N227" s="2"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -4298,7 +4298,7 @@
       <c r="N228" s="2"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -4313,7 +4313,7 @@
       <c r="N229" s="2"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -4328,7 +4328,7 @@
       <c r="N230" s="2"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -4343,7 +4343,7 @@
       <c r="N231" s="2"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -4358,7 +4358,7 @@
       <c r="N232" s="2"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -4373,7 +4373,7 @@
       <c r="N233" s="2"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -4388,7 +4388,7 @@
       <c r="N234" s="2"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -4403,7 +4403,7 @@
       <c r="N235" s="2"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -4418,7 +4418,7 @@
       <c r="N236" s="2"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -4433,7 +4433,7 @@
       <c r="N237" s="2"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -4448,7 +4448,7 @@
       <c r="N238" s="2"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -4463,7 +4463,7 @@
       <c r="N239" s="2"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -4478,7 +4478,7 @@
       <c r="N240" s="2"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -4493,7 +4493,7 @@
       <c r="N241" s="2"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -4508,7 +4508,7 @@
       <c r="N242" s="2"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -4523,7 +4523,7 @@
       <c r="N243" s="2"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -4538,7 +4538,7 @@
       <c r="N244" s="2"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -4553,7 +4553,7 @@
       <c r="N245" s="2"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -4568,7 +4568,7 @@
       <c r="N246" s="2"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -4583,7 +4583,7 @@
       <c r="N247" s="2"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -4598,7 +4598,7 @@
       <c r="N248" s="2"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -4613,7 +4613,7 @@
       <c r="N249" s="2"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -4628,7 +4628,7 @@
       <c r="N250" s="2"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -4643,7 +4643,7 @@
       <c r="N251" s="2"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -4658,7 +4658,7 @@
       <c r="N252" s="2"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -4673,7 +4673,7 @@
       <c r="N253" s="2"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -4688,7 +4688,7 @@
       <c r="N254" s="2"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -4703,7 +4703,7 @@
       <c r="N255" s="2"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -4718,7 +4718,7 @@
       <c r="N256" s="2"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -4731,7 +4731,7 @@
       <c r="J257" s="1"/>
       <c r="K257" s="2"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -4744,7 +4744,7 @@
       <c r="J258" s="1"/>
       <c r="K258" s="2"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -4757,7 +4757,7 @@
       <c r="J259" s="1"/>
       <c r="K259" s="2"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -4770,7 +4770,7 @@
       <c r="J260" s="1"/>
       <c r="K260" s="2"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -4783,7 +4783,7 @@
       <c r="J261" s="1"/>
       <c r="K261" s="2"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -4796,7 +4796,7 @@
       <c r="J262" s="1"/>
       <c r="K262" s="2"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -4809,7 +4809,7 @@
       <c r="J263" s="1"/>
       <c r="K263" s="2"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -4822,7 +4822,7 @@
       <c r="J264" s="1"/>
       <c r="K264" s="2"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -4835,7 +4835,7 @@
       <c r="J265" s="1"/>
       <c r="K265" s="2"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -4848,7 +4848,7 @@
       <c r="J266" s="1"/>
       <c r="K266" s="2"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -4861,7 +4861,7 @@
       <c r="J267" s="1"/>
       <c r="K267" s="2"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -4874,7 +4874,7 @@
       <c r="J268" s="1"/>
       <c r="K268" s="2"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -4887,7 +4887,7 @@
       <c r="J269" s="1"/>
       <c r="K269" s="2"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -4900,7 +4900,7 @@
       <c r="J270" s="1"/>
       <c r="K270" s="2"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -4913,7 +4913,7 @@
       <c r="J271" s="1"/>
       <c r="K271" s="2"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -4926,7 +4926,7 @@
       <c r="J272" s="1"/>
       <c r="K272" s="2"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -4939,7 +4939,7 @@
       <c r="J273" s="1"/>
       <c r="K273" s="2"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -4952,7 +4952,7 @@
       <c r="J274" s="1"/>
       <c r="K274" s="2"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -4965,7 +4965,7 @@
       <c r="J275" s="1"/>
       <c r="K275" s="2"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -4978,7 +4978,7 @@
       <c r="J276" s="1"/>
       <c r="K276" s="2"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -4991,7 +4991,7 @@
       <c r="J277" s="1"/>
       <c r="K277" s="2"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -5004,7 +5004,7 @@
       <c r="J278" s="1"/>
       <c r="K278" s="2"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -5017,7 +5017,7 @@
       <c r="J279" s="1"/>
       <c r="K279" s="2"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -5030,7 +5030,7 @@
       <c r="J280" s="1"/>
       <c r="K280" s="2"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -5043,7 +5043,7 @@
       <c r="J281" s="1"/>
       <c r="K281" s="2"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -5056,7 +5056,7 @@
       <c r="J282" s="1"/>
       <c r="K282" s="2"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -5069,7 +5069,7 @@
       <c r="J283" s="1"/>
       <c r="K283" s="2"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -5082,7 +5082,7 @@
       <c r="J284" s="1"/>
       <c r="K284" s="2"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -5095,7 +5095,7 @@
       <c r="J285" s="1"/>
       <c r="K285" s="2"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -5108,7 +5108,7 @@
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -5121,7 +5121,7 @@
       <c r="J287" s="1"/>
       <c r="K287" s="2"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -5134,7 +5134,7 @@
       <c r="J288" s="1"/>
       <c r="K288" s="2"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -5147,7 +5147,7 @@
       <c r="J289" s="1"/>
       <c r="K289" s="2"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -5160,7 +5160,7 @@
       <c r="J290" s="1"/>
       <c r="K290" s="2"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -5173,7 +5173,7 @@
       <c r="J291" s="1"/>
       <c r="K291" s="2"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -5186,7 +5186,7 @@
       <c r="J292" s="1"/>
       <c r="K292" s="2"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -5199,7 +5199,7 @@
       <c r="J293" s="1"/>
       <c r="K293" s="2"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -5212,7 +5212,7 @@
       <c r="J294" s="1"/>
       <c r="K294" s="2"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -5225,7 +5225,7 @@
       <c r="J295" s="1"/>
       <c r="K295" s="2"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -5238,7 +5238,7 @@
       <c r="J296" s="1"/>
       <c r="K296" s="2"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -5251,7 +5251,7 @@
       <c r="J297" s="1"/>
       <c r="K297" s="2"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -5264,7 +5264,7 @@
       <c r="J298" s="1"/>
       <c r="K298" s="2"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -5277,7 +5277,7 @@
       <c r="J299" s="1"/>
       <c r="K299" s="2"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -5290,7 +5290,7 @@
       <c r="J300" s="1"/>
       <c r="K300" s="2"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -5303,7 +5303,7 @@
       <c r="J301" s="1"/>
       <c r="K301" s="2"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -5316,7 +5316,7 @@
       <c r="J302" s="1"/>
       <c r="K302" s="2"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -5329,7 +5329,7 @@
       <c r="J303" s="1"/>
       <c r="K303" s="2"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -5342,7 +5342,7 @@
       <c r="J304" s="1"/>
       <c r="K304" s="2"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -5355,7 +5355,7 @@
       <c r="J305" s="1"/>
       <c r="K305" s="2"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -5368,7 +5368,7 @@
       <c r="J306" s="1"/>
       <c r="K306" s="2"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -5381,7 +5381,7 @@
       <c r="J307" s="1"/>
       <c r="K307" s="2"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -5394,7 +5394,7 @@
       <c r="J308" s="1"/>
       <c r="K308" s="2"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -5407,7 +5407,7 @@
       <c r="J309" s="1"/>
       <c r="K309" s="2"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -5420,7 +5420,7 @@
       <c r="J310" s="1"/>
       <c r="K310" s="2"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -5433,7 +5433,7 @@
       <c r="J311" s="1"/>
       <c r="K311" s="2"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -5446,7 +5446,7 @@
       <c r="J312" s="1"/>
       <c r="K312" s="2"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -5459,7 +5459,7 @@
       <c r="J313" s="1"/>
       <c r="K313" s="2"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -5472,7 +5472,7 @@
       <c r="J314" s="1"/>
       <c r="K314" s="2"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -5485,7 +5485,7 @@
       <c r="J315" s="1"/>
       <c r="K315" s="2"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -5498,7 +5498,7 @@
       <c r="J316" s="1"/>
       <c r="K316" s="2"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -5511,7 +5511,7 @@
       <c r="J317" s="1"/>
       <c r="K317" s="2"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -5524,7 +5524,7 @@
       <c r="J318" s="1"/>
       <c r="K318" s="2"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -5537,7 +5537,7 @@
       <c r="J319" s="1"/>
       <c r="K319" s="2"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -5550,7 +5550,7 @@
       <c r="J320" s="1"/>
       <c r="K320" s="2"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -5563,7 +5563,7 @@
       <c r="J321" s="1"/>
       <c r="K321" s="2"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -5576,7 +5576,7 @@
       <c r="J322" s="1"/>
       <c r="K322" s="2"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -5589,7 +5589,7 @@
       <c r="J323" s="1"/>
       <c r="K323" s="2"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -5602,7 +5602,7 @@
       <c r="J324" s="1"/>
       <c r="K324" s="2"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -5615,7 +5615,7 @@
       <c r="J325" s="1"/>
       <c r="K325" s="2"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -5628,7 +5628,7 @@
       <c r="J326" s="1"/>
       <c r="K326" s="2"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -5641,7 +5641,7 @@
       <c r="J327" s="1"/>
       <c r="K327" s="2"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -5654,7 +5654,7 @@
       <c r="J328" s="1"/>
       <c r="K328" s="2"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -5667,7 +5667,7 @@
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -5680,7 +5680,7 @@
       <c r="J330" s="1"/>
       <c r="K330" s="2"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -5693,7 +5693,7 @@
       <c r="J331" s="1"/>
       <c r="K331" s="2"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -5706,7 +5706,7 @@
       <c r="J332" s="1"/>
       <c r="K332" s="2"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -5719,7 +5719,7 @@
       <c r="J333" s="1"/>
       <c r="K333" s="2"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -5732,7 +5732,7 @@
       <c r="J334" s="1"/>
       <c r="K334" s="2"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -5745,7 +5745,7 @@
       <c r="J335" s="1"/>
       <c r="K335" s="2"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -5758,7 +5758,7 @@
       <c r="J336" s="1"/>
       <c r="K336" s="2"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -5771,7 +5771,7 @@
       <c r="J337" s="1"/>
       <c r="K337" s="2"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -5784,7 +5784,7 @@
       <c r="J338" s="1"/>
       <c r="K338" s="2"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -5797,7 +5797,7 @@
       <c r="J339" s="1"/>
       <c r="K339" s="2"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -5810,7 +5810,7 @@
       <c r="J340" s="1"/>
       <c r="K340" s="2"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -5823,7 +5823,7 @@
       <c r="J341" s="1"/>
       <c r="K341" s="2"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -5836,7 +5836,7 @@
       <c r="J342" s="1"/>
       <c r="K342" s="2"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -5849,7 +5849,7 @@
       <c r="J343" s="1"/>
       <c r="K343" s="2"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -5862,7 +5862,7 @@
       <c r="J344" s="1"/>
       <c r="K344" s="2"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -5875,7 +5875,7 @@
       <c r="J345" s="1"/>
       <c r="K345" s="2"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -5888,7 +5888,7 @@
       <c r="J346" s="1"/>
       <c r="K346" s="2"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -5901,7 +5901,7 @@
       <c r="J347" s="1"/>
       <c r="K347" s="2"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -5914,7 +5914,7 @@
       <c r="J348" s="1"/>
       <c r="K348" s="2"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -5927,7 +5927,7 @@
       <c r="J349" s="1"/>
       <c r="K349" s="2"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -5940,7 +5940,7 @@
       <c r="J350" s="1"/>
       <c r="K350" s="2"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -5953,7 +5953,7 @@
       <c r="J351" s="1"/>
       <c r="K351" s="2"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -5966,7 +5966,7 @@
       <c r="J352" s="1"/>
       <c r="K352" s="2"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -5979,7 +5979,7 @@
       <c r="J353" s="1"/>
       <c r="K353" s="2"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -5992,7 +5992,7 @@
       <c r="J354" s="1"/>
       <c r="K354" s="2"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -6005,7 +6005,7 @@
       <c r="J355" s="1"/>
       <c r="K355" s="2"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -6018,7 +6018,7 @@
       <c r="J356" s="1"/>
       <c r="K356" s="2"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -6031,7 +6031,7 @@
       <c r="J357" s="1"/>
       <c r="K357" s="2"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -6044,7 +6044,7 @@
       <c r="J358" s="1"/>
       <c r="K358" s="2"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -6057,7 +6057,7 @@
       <c r="J359" s="1"/>
       <c r="K359" s="2"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -6070,7 +6070,7 @@
       <c r="J360" s="1"/>
       <c r="K360" s="2"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -6083,7 +6083,7 @@
       <c r="J361" s="1"/>
       <c r="K361" s="2"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -6096,7 +6096,7 @@
       <c r="J362" s="1"/>
       <c r="K362" s="2"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -6109,7 +6109,7 @@
       <c r="J363" s="1"/>
       <c r="K363" s="2"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -6122,7 +6122,7 @@
       <c r="J364" s="1"/>
       <c r="K364" s="2"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -6135,7 +6135,7 @@
       <c r="J365" s="1"/>
       <c r="K365" s="2"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -6148,7 +6148,7 @@
       <c r="J366" s="1"/>
       <c r="K366" s="2"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -6161,7 +6161,7 @@
       <c r="J367" s="1"/>
       <c r="K367" s="2"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -6174,7 +6174,7 @@
       <c r="J368" s="1"/>
       <c r="K368" s="2"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -6187,7 +6187,7 @@
       <c r="J369" s="1"/>
       <c r="K369" s="2"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -6200,7 +6200,7 @@
       <c r="J370" s="1"/>
       <c r="K370" s="2"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -6213,7 +6213,7 @@
       <c r="J371" s="1"/>
       <c r="K371" s="2"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -6226,7 +6226,7 @@
       <c r="J372" s="1"/>
       <c r="K372" s="2"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -6239,7 +6239,7 @@
       <c r="J373" s="1"/>
       <c r="K373" s="2"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -6252,7 +6252,7 @@
       <c r="J374" s="1"/>
       <c r="K374" s="2"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -6265,7 +6265,7 @@
       <c r="J375" s="1"/>
       <c r="K375" s="2"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -6278,7 +6278,7 @@
       <c r="J376" s="1"/>
       <c r="K376" s="2"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -6291,7 +6291,7 @@
       <c r="J377" s="1"/>
       <c r="K377" s="2"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -6304,7 +6304,7 @@
       <c r="J378" s="1"/>
       <c r="K378" s="2"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -6317,7 +6317,7 @@
       <c r="J379" s="1"/>
       <c r="K379" s="2"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -6330,7 +6330,7 @@
       <c r="J380" s="1"/>
       <c r="K380" s="2"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -6343,7 +6343,7 @@
       <c r="J381" s="1"/>
       <c r="K381" s="2"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -6356,7 +6356,7 @@
       <c r="J382" s="1"/>
       <c r="K382" s="2"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -6369,7 +6369,7 @@
       <c r="J383" s="1"/>
       <c r="K383" s="2"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -6382,7 +6382,7 @@
       <c r="J384" s="1"/>
       <c r="K384" s="2"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -6395,7 +6395,7 @@
       <c r="J385" s="1"/>
       <c r="K385" s="1"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -6408,7 +6408,7 @@
       <c r="J386" s="1"/>
       <c r="K386" s="2"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -6421,7 +6421,7 @@
       <c r="J387" s="1"/>
       <c r="K387" s="2"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -6434,7 +6434,7 @@
       <c r="J388" s="1"/>
       <c r="K388" s="2"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -6447,7 +6447,7 @@
       <c r="J389" s="1"/>
       <c r="K389" s="2"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -6460,7 +6460,7 @@
       <c r="J390" s="1"/>
       <c r="K390" s="2"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -6473,7 +6473,7 @@
       <c r="J391" s="1"/>
       <c r="K391" s="2"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -6486,7 +6486,7 @@
       <c r="J392" s="1"/>
       <c r="K392" s="2"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -6499,7 +6499,7 @@
       <c r="J393" s="1"/>
       <c r="K393" s="2"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -6512,7 +6512,7 @@
       <c r="J394" s="1"/>
       <c r="K394" s="2"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -6525,7 +6525,7 @@
       <c r="J395" s="1"/>
       <c r="K395" s="1"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -6538,7 +6538,7 @@
       <c r="J396" s="1"/>
       <c r="K396" s="2"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -6551,7 +6551,7 @@
       <c r="J397" s="1"/>
       <c r="K397" s="2"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -6564,7 +6564,7 @@
       <c r="J398" s="1"/>
       <c r="K398" s="2"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -6577,7 +6577,7 @@
       <c r="J399" s="1"/>
       <c r="K399" s="2"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -6590,7 +6590,7 @@
       <c r="J400" s="1"/>
       <c r="K400" s="2"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -6603,7 +6603,7 @@
       <c r="J401" s="1"/>
       <c r="K401" s="2"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -6616,7 +6616,7 @@
       <c r="J402" s="1"/>
       <c r="K402" s="2"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -6629,7 +6629,7 @@
       <c r="J403" s="1"/>
       <c r="K403" s="2"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -6642,7 +6642,7 @@
       <c r="J404" s="1"/>
       <c r="K404" s="2"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -6655,7 +6655,7 @@
       <c r="J405" s="1"/>
       <c r="K405" s="2"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -6668,7 +6668,7 @@
       <c r="J406" s="1"/>
       <c r="K406" s="2"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -6681,7 +6681,7 @@
       <c r="J407" s="1"/>
       <c r="K407" s="2"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -6694,7 +6694,7 @@
       <c r="J408" s="1"/>
       <c r="K408" s="2"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -6707,7 +6707,7 @@
       <c r="J409" s="1"/>
       <c r="K409" s="2"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -6720,7 +6720,7 @@
       <c r="J410" s="1"/>
       <c r="K410" s="2"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -6733,7 +6733,7 @@
       <c r="J411" s="1"/>
       <c r="K411" s="2"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -6746,7 +6746,7 @@
       <c r="J412" s="1"/>
       <c r="K412" s="2"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -6759,7 +6759,7 @@
       <c r="J413" s="1"/>
       <c r="K413" s="2"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -6772,7 +6772,7 @@
       <c r="J414" s="1"/>
       <c r="K414" s="2"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -6785,7 +6785,7 @@
       <c r="J415" s="1"/>
       <c r="K415" s="2"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -6798,7 +6798,7 @@
       <c r="J416" s="1"/>
       <c r="K416" s="2"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -6811,7 +6811,7 @@
       <c r="J417" s="1"/>
       <c r="K417" s="2"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -6824,7 +6824,7 @@
       <c r="J418" s="1"/>
       <c r="K418" s="2"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -6837,7 +6837,7 @@
       <c r="J419" s="1"/>
       <c r="K419" s="2"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -6850,7 +6850,7 @@
       <c r="J420" s="1"/>
       <c r="K420" s="2"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -6863,7 +6863,7 @@
       <c r="J421" s="1"/>
       <c r="K421" s="2"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -6876,7 +6876,7 @@
       <c r="J422" s="1"/>
       <c r="K422" s="2"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -6889,7 +6889,7 @@
       <c r="J423" s="1"/>
       <c r="K423" s="2"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -6902,7 +6902,7 @@
       <c r="J424" s="1"/>
       <c r="K424" s="2"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -6915,7 +6915,7 @@
       <c r="J425" s="1"/>
       <c r="K425" s="2"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -6928,7 +6928,7 @@
       <c r="J426" s="1"/>
       <c r="K426" s="2"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -6941,7 +6941,7 @@
       <c r="J427" s="1"/>
       <c r="K427" s="2"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -6954,7 +6954,7 @@
       <c r="J428" s="1"/>
       <c r="K428" s="2"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -6967,7 +6967,7 @@
       <c r="J429" s="1"/>
       <c r="K429" s="2"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -6980,7 +6980,7 @@
       <c r="J430" s="1"/>
       <c r="K430" s="2"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -6993,7 +6993,7 @@
       <c r="J431" s="1"/>
       <c r="K431" s="2"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -7006,7 +7006,7 @@
       <c r="J432" s="1"/>
       <c r="K432" s="2"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -7019,7 +7019,7 @@
       <c r="J433" s="1"/>
       <c r="K433" s="2"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -7032,7 +7032,7 @@
       <c r="J434" s="1"/>
       <c r="K434" s="2"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -7045,7 +7045,7 @@
       <c r="J435" s="1"/>
       <c r="K435" s="2"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -7058,7 +7058,7 @@
       <c r="J436" s="1"/>
       <c r="K436" s="2"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -7071,7 +7071,7 @@
       <c r="J437" s="1"/>
       <c r="K437" s="2"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -7084,7 +7084,7 @@
       <c r="J438" s="1"/>
       <c r="K438" s="2"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -7097,7 +7097,7 @@
       <c r="J439" s="1"/>
       <c r="K439" s="2"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -7110,7 +7110,7 @@
       <c r="J440" s="1"/>
       <c r="K440" s="2"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -7123,7 +7123,7 @@
       <c r="J441" s="1"/>
       <c r="K441" s="2"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -7136,7 +7136,7 @@
       <c r="J442" s="1"/>
       <c r="K442" s="2"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -7149,7 +7149,7 @@
       <c r="J443" s="1"/>
       <c r="K443" s="2"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -7162,7 +7162,7 @@
       <c r="J444" s="1"/>
       <c r="K444" s="2"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -7175,7 +7175,7 @@
       <c r="J445" s="1"/>
       <c r="K445" s="2"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -7188,7 +7188,7 @@
       <c r="J446" s="1"/>
       <c r="K446" s="2"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -7201,7 +7201,7 @@
       <c r="J447" s="1"/>
       <c r="K447" s="2"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -7214,7 +7214,7 @@
       <c r="J448" s="1"/>
       <c r="K448" s="2"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -7227,7 +7227,7 @@
       <c r="J449" s="1"/>
       <c r="K449" s="2"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -7240,7 +7240,7 @@
       <c r="J450" s="1"/>
       <c r="K450" s="2"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -7253,7 +7253,7 @@
       <c r="J451" s="1"/>
       <c r="K451" s="2"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -7266,7 +7266,7 @@
       <c r="J452" s="1"/>
       <c r="K452" s="2"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -7279,7 +7279,7 @@
       <c r="J453" s="1"/>
       <c r="K453" s="2"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -7292,7 +7292,7 @@
       <c r="J454" s="1"/>
       <c r="K454" s="2"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -7305,7 +7305,7 @@
       <c r="J455" s="1"/>
       <c r="K455" s="2"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -7318,7 +7318,7 @@
       <c r="J456" s="1"/>
       <c r="K456" s="2"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -7331,7 +7331,7 @@
       <c r="J457" s="1"/>
       <c r="K457" s="2"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -7344,7 +7344,7 @@
       <c r="J458" s="1"/>
       <c r="K458" s="2"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -7357,7 +7357,7 @@
       <c r="J459" s="1"/>
       <c r="K459" s="2"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -7370,7 +7370,7 @@
       <c r="J460" s="1"/>
       <c r="K460" s="2"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -7383,7 +7383,7 @@
       <c r="J461" s="1"/>
       <c r="K461" s="2"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -7396,7 +7396,7 @@
       <c r="J462" s="1"/>
       <c r="K462" s="2"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -7409,7 +7409,7 @@
       <c r="J463" s="1"/>
       <c r="K463" s="2"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -7422,7 +7422,7 @@
       <c r="J464" s="1"/>
       <c r="K464" s="1"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -7435,7 +7435,7 @@
       <c r="J465" s="1"/>
       <c r="K465" s="2"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -7448,7 +7448,7 @@
       <c r="J466" s="1"/>
       <c r="K466" s="2"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -7461,7 +7461,7 @@
       <c r="J467" s="1"/>
       <c r="K467" s="2"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -7474,7 +7474,7 @@
       <c r="J468" s="1"/>
       <c r="K468" s="2"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -7487,7 +7487,7 @@
       <c r="J469" s="1"/>
       <c r="K469" s="2"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -7500,7 +7500,7 @@
       <c r="J470" s="1"/>
       <c r="K470" s="2"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -7513,7 +7513,7 @@
       <c r="J471" s="1"/>
       <c r="K471" s="2"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -7526,7 +7526,7 @@
       <c r="J472" s="1"/>
       <c r="K472" s="2"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -7539,7 +7539,7 @@
       <c r="J473" s="1"/>
       <c r="K473" s="2"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -7552,7 +7552,7 @@
       <c r="J474" s="1"/>
       <c r="K474" s="2"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -7565,7 +7565,7 @@
       <c r="J475" s="1"/>
       <c r="K475" s="2"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -7578,7 +7578,7 @@
       <c r="J476" s="1"/>
       <c r="K476" s="2"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -7591,7 +7591,7 @@
       <c r="J477" s="1"/>
       <c r="K477" s="2"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -7604,7 +7604,7 @@
       <c r="J478" s="1"/>
       <c r="K478" s="2"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -7617,7 +7617,7 @@
       <c r="J479" s="1"/>
       <c r="K479" s="2"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -7630,7 +7630,7 @@
       <c r="J480" s="1"/>
       <c r="K480" s="2"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -7643,7 +7643,7 @@
       <c r="J481" s="1"/>
       <c r="K481" s="2"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -7656,7 +7656,7 @@
       <c r="J482" s="1"/>
       <c r="K482" s="2"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -7669,7 +7669,7 @@
       <c r="J483" s="1"/>
       <c r="K483" s="2"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -7682,7 +7682,7 @@
       <c r="J484" s="1"/>
       <c r="K484" s="2"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -7695,7 +7695,7 @@
       <c r="J485" s="1"/>
       <c r="K485" s="2"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -7708,7 +7708,7 @@
       <c r="J486" s="1"/>
       <c r="K486" s="2"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -7721,7 +7721,7 @@
       <c r="J487" s="1"/>
       <c r="K487" s="2"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -7734,7 +7734,7 @@
       <c r="J488" s="1"/>
       <c r="K488" s="2"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -7747,7 +7747,7 @@
       <c r="J489" s="1"/>
       <c r="K489" s="2"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -7760,7 +7760,7 @@
       <c r="J490" s="1"/>
       <c r="K490" s="2"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -7773,7 +7773,7 @@
       <c r="J491" s="1"/>
       <c r="K491" s="2"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -7786,7 +7786,7 @@
       <c r="J492" s="1"/>
       <c r="K492" s="2"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -7799,7 +7799,7 @@
       <c r="J493" s="1"/>
       <c r="K493" s="2"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -7812,7 +7812,7 @@
       <c r="J494" s="1"/>
       <c r="K494" s="2"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -7825,7 +7825,7 @@
       <c r="J495" s="1"/>
       <c r="K495" s="2"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -7838,7 +7838,7 @@
       <c r="J496" s="1"/>
       <c r="K496" s="2"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -7851,7 +7851,7 @@
       <c r="J497" s="1"/>
       <c r="K497" s="2"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -7864,7 +7864,7 @@
       <c r="J498" s="1"/>
       <c r="K498" s="2"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -7877,7 +7877,7 @@
       <c r="J499" s="1"/>
       <c r="K499" s="2"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -7890,7 +7890,7 @@
       <c r="J500" s="1"/>
       <c r="K500" s="2"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\OneDrive\Desktop\Git Clones\Excel-Imports-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\OneDrive\Desktop\Git Clones\Excel-Imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61FE9161-5481-4656-9EBF-1EF939C24045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FACC561-4C74-484A-8F2C-E31AEA19AFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="2865" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="253">
   <si>
     <t>Customer full name</t>
   </si>
@@ -243,13 +243,565 @@
   </si>
   <si>
     <t>1026 Laurier St. Rockland Ontario</t>
+  </si>
+  <si>
+    <t>2075227 Ontario Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone:(613) 263-0301 Fax:(613) 260-7313 </t>
+  </si>
+  <si>
+    <t>2211 Riverside Dr., Suite B1 Ottawa Ontario K1H 7X5</t>
+  </si>
+  <si>
+    <t>20 Fitzgerald Rd. Holdings Ltd.</t>
+  </si>
+  <si>
+    <t>Demers.realspace@rogers.com</t>
+  </si>
+  <si>
+    <t>c/o Realspace Mgmt. Group Toronto Ontario M2H 3H7 Canada</t>
+  </si>
+  <si>
+    <t>20 Vic Management Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone:(613) 523-2066 Fax:(613) 733-7233 </t>
+  </si>
+  <si>
+    <t>Billings Bridge Centre Ottawa Ontario K1H 7X6</t>
+  </si>
+  <si>
+    <t>2135560 Ontario Limited</t>
+  </si>
+  <si>
+    <t>1931 Highway # 7 Concord Ontario L4K 1V5</t>
+  </si>
+  <si>
+    <t>2164613 Ontario Inc.</t>
+  </si>
+  <si>
+    <t>473 Albert St. Ottawa Ontario K1R 5B4</t>
+  </si>
+  <si>
+    <t>2241497 Ontario Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone:(613) 227-7997 Fax:(613) 256-8998 </t>
+  </si>
+  <si>
+    <t>rodayotte@yahoo.ca</t>
+  </si>
+  <si>
+    <t>1931 Highway 7 Concord Ontario L4K 1V5</t>
+  </si>
+  <si>
+    <t>2241497 Ontario Limited:Almonte Plaza Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone:(613) 227-7997 - Rod Fax:(613) 256-8998 </t>
+  </si>
+  <si>
+    <t>Rodayotte@yahoo.ca, sveta@elmdevelopments.com, d.osypowich@elmdevelopments.com</t>
+  </si>
+  <si>
+    <t>c/o 2241497 Ontario Limited Concord Ontario L4K 1V5 c/o Jason D'Elia                      Attention: Accounts Payable</t>
+  </si>
+  <si>
+    <t>Almonte Plaza 430 Ontario St. Almonte Ontario  Canada</t>
+  </si>
+  <si>
+    <t>Almonte Plaza Inc.</t>
+  </si>
+  <si>
+    <t>242 Rideau Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone:613-831-0700 </t>
+  </si>
+  <si>
+    <t>snovak@bergrealty.ca</t>
+  </si>
+  <si>
+    <t>106 Westover Crescent Ottawa ON K2T 0K6</t>
+  </si>
+  <si>
+    <t>Claridge Plaza 3</t>
+  </si>
+  <si>
+    <t>242 Rideau Street Ottawa ON K1N 5Y3</t>
+  </si>
+  <si>
+    <t>2553395 Ontario Inc.</t>
+  </si>
+  <si>
+    <t>400 Earl Grey Dr., Unit B3 Kanata Ontario K2T 1B9</t>
+  </si>
+  <si>
+    <t>275 Michael Cowpland Drive, K2M 2G2</t>
+  </si>
+  <si>
+    <t>invoices@hein.ca</t>
+  </si>
+  <si>
+    <t>275 Michael Cowpland Drive   K2M 2G2</t>
+  </si>
+  <si>
+    <t>Pembroke Regional Hospital</t>
+  </si>
+  <si>
+    <t>Day Surgery &amp; In Patient</t>
+  </si>
+  <si>
+    <t>705 Mackay St Pembroke Ontario K8A 1G8 Canada</t>
+  </si>
+  <si>
+    <t>2950-2960 Bank St. Retail Centre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone:(613) 523-7479 </t>
+  </si>
+  <si>
+    <t>2950 Bank St. Ottawa Ontario K1T 1N8</t>
+  </si>
+  <si>
+    <t>2C London</t>
+  </si>
+  <si>
+    <t>2C  London</t>
+  </si>
+  <si>
+    <t>102 Bank St., Suite  300 Ottawa Ontario K1P 5N4</t>
+  </si>
+  <si>
+    <t>310 Centrum Blvd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone:613-736-7807 ext 121 </t>
+  </si>
+  <si>
+    <t>payables@sentinelmanagement.com</t>
+  </si>
+  <si>
+    <t>5832 Bank Street Ottawa Ontario K4P 1B9 Canada</t>
+  </si>
+  <si>
+    <t>310 Centrum Blvd Orleans Ontario K1E 3W8 Canada</t>
+  </si>
+  <si>
+    <t>3181642 Canada Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone:(613) 796-2307 </t>
+  </si>
+  <si>
+    <t>PO Box 620 Casselman Ontario K0A 1M0</t>
+  </si>
+  <si>
+    <t>360 Advanced Security Corp.</t>
+  </si>
+  <si>
+    <t>serviceottawa@360asc.com</t>
+  </si>
+  <si>
+    <t>720 Belfast Rd., Unit 106 Ottawa Ontario K1G 0Z5</t>
+  </si>
+  <si>
+    <t>3673928 Canada Inc.</t>
+  </si>
+  <si>
+    <t>McGill Manor Hawkesbury Ontario K6A 1P9</t>
+  </si>
+  <si>
+    <t>3 F</t>
+  </si>
+  <si>
+    <t>schryver3f@hotmail.ca</t>
+  </si>
+  <si>
+    <t>3541 Dalmac Rd Osgoode Ontario</t>
+  </si>
+  <si>
+    <t>401 Electric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone:613-342-6042 </t>
+  </si>
+  <si>
+    <t>me@me.com</t>
+  </si>
+  <si>
+    <t>20 Cowan Ave. Brockville Ontario K6V 6E6 Canada</t>
+  </si>
+  <si>
+    <t>40 Sunset Blvd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone:613-264-6135  - Earl Kerr </t>
+  </si>
+  <si>
+    <t>info@rgss-ventures.com</t>
+  </si>
+  <si>
+    <t>40 Sunset Blvd. Perth Ontario</t>
+  </si>
+  <si>
+    <t>Suite 105 Perth Ontario</t>
+  </si>
+  <si>
+    <t>415 Legget Leaseholds Inc.</t>
+  </si>
+  <si>
+    <t>555 Legget Dr., Suite 206 Kanata Ontario K2K 2X3</t>
+  </si>
+  <si>
+    <t>4Site Retail Services Inc.</t>
+  </si>
+  <si>
+    <t>3 Adi Dassler Way Paris Ontario N3L 0B9</t>
+  </si>
+  <si>
+    <t>5010645 Ontario Ltd.</t>
+  </si>
+  <si>
+    <t>ottawahandymanservices.ca@gmail.com</t>
+  </si>
+  <si>
+    <t>112 Sorento St Nepean ON K2J 0B1</t>
+  </si>
+  <si>
+    <t>52 Abbot St.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone:613-229-4485 - Charlie </t>
+  </si>
+  <si>
+    <t>stephspin@gmail.com</t>
+  </si>
+  <si>
+    <t>52 Abbott St. Smiths Falls Ontario</t>
+  </si>
+  <si>
+    <t>613-225-7663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone:613-225-7663 </t>
+  </si>
+  <si>
+    <t>cneville@aquatopiaconservatory.com</t>
+  </si>
+  <si>
+    <t>2710 March Rd. Ottawa Ontario K0A 1L0 Canada</t>
+  </si>
+  <si>
+    <t>613-299-1979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone:613-299-1979 </t>
+  </si>
+  <si>
+    <t>ccbelda@gmail.com</t>
+  </si>
+  <si>
+    <t>16 Sheffield Street Arnprior Ontario K7S 0A2 Canada</t>
+  </si>
+  <si>
+    <t>613-445-2944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone:613-445-2944 </t>
+  </si>
+  <si>
+    <t>beth@frecon.ca</t>
+  </si>
+  <si>
+    <t>1235 South Russell Road, Box 278   K4R 1E1</t>
+  </si>
+  <si>
+    <t>1235 South Russell Road, Box 278 Russell Ontario K4R 1E1</t>
+  </si>
+  <si>
+    <t>613-445-2944:Ashbury College</t>
+  </si>
+  <si>
+    <t>k.hanes@frecon.ca</t>
+  </si>
+  <si>
+    <t>1235 South Russell Rd. Russell Ontario K4R 1E1 Canada</t>
+  </si>
+  <si>
+    <t>Ashbury College362 Mariposa Ave Ottawa Ontario  Canada</t>
+  </si>
+  <si>
+    <t>Ashbury College</t>
+  </si>
+  <si>
+    <t>613-445-2944:Canterbury H.S.</t>
+  </si>
+  <si>
+    <t>accounting@frecon.ca, beth@frecon.ca, m.jones@frecon.ca</t>
+  </si>
+  <si>
+    <t>Canterbury H.S.900 Canterbury Ave. Ottawa Ontario</t>
+  </si>
+  <si>
+    <t>Canterbury H.S.</t>
+  </si>
+  <si>
+    <t>613-445-2944:Clifford Bowey Public School</t>
+  </si>
+  <si>
+    <t>1235 South Russell Road, Box 278 Russell Ontario K4R 1E1 Canada</t>
+  </si>
+  <si>
+    <t>Clifford Bowey Public School1300 Kitchener Ave. Ottawa Ontario  Canada</t>
+  </si>
+  <si>
+    <t>Clifford Bowey Public School</t>
+  </si>
+  <si>
+    <t>613-445-2944:Fernbank School</t>
+  </si>
+  <si>
+    <t>480 Cope Drive Ottawa Ontario K2V 0B8</t>
+  </si>
+  <si>
+    <t>Fernbank School</t>
+  </si>
+  <si>
+    <t>613-445-2944:Gloucester High School</t>
+  </si>
+  <si>
+    <t>Gloucester High School2060 Ogilvie Rd Ottawa Ontario  Canada</t>
+  </si>
+  <si>
+    <t>Gloucester High School</t>
+  </si>
+  <si>
+    <t>613-445-2944:Goulbourne Middle School</t>
+  </si>
+  <si>
+    <t>Goulbourne Middle School2176 Huntley Rd Stittsville Ontario  Canada</t>
+  </si>
+  <si>
+    <t>Goulbourne Middle School</t>
+  </si>
+  <si>
+    <t>613-445-2944:Innovative Community Support Services</t>
+  </si>
+  <si>
+    <t>1235 South Russell Rd. Russell Ontario K4R 1E1</t>
+  </si>
+  <si>
+    <t>Innovative Community Support Services2025 Lanthier Dr Ottawa Ontario  Canada</t>
+  </si>
+  <si>
+    <t>Innovative Community Support Services</t>
+  </si>
+  <si>
+    <t>613-445-2944:Knoxdale Public School</t>
+  </si>
+  <si>
+    <t>Knoxdale Public School170 Greenbank Rd. Nepean Ontario K2H 5V2 Canada</t>
+  </si>
+  <si>
+    <t>Knoxdale Public School</t>
+  </si>
+  <si>
+    <t>613-445-2944:Metcalfe Public School</t>
+  </si>
+  <si>
+    <t>Metcalfe Public School2701 8th Line Rd Metcalfe Ontario  Canada</t>
+  </si>
+  <si>
+    <t>Metcalfe Public School</t>
+  </si>
+  <si>
+    <t>613-445-2944:Sir Wilfred Laurier School</t>
+  </si>
+  <si>
+    <t>Sir Wilfred Laurier School1515 Tenth Line Rd. Orleans Ontario</t>
+  </si>
+  <si>
+    <t>Sir Wilfred Laurier School</t>
+  </si>
+  <si>
+    <t>613-714-1110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone:613-714-1110 </t>
+  </si>
+  <si>
+    <t>accounts@aquatria.ca</t>
+  </si>
+  <si>
+    <t>11 Rue Aquatria Casselman Ontario K0A 1M0 Canada</t>
+  </si>
+  <si>
+    <t>613-733-7507 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone:613-733-7507 </t>
+  </si>
+  <si>
+    <t>scott@mminterior.ca</t>
+  </si>
+  <si>
+    <t>861 Boyd Avenue   K2A 2C0</t>
+  </si>
+  <si>
+    <t>255 Albert St Ottawa Ontario K1P 6A9 Canada</t>
+  </si>
+  <si>
+    <t>613-804-9028 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone:613-804-9028 </t>
+  </si>
+  <si>
+    <t>sabbi@premium-construction.ca</t>
+  </si>
+  <si>
+    <t>Unit #30 - 174 Colonnade Rd. Ottawa Ontario K2E 7J3 Canada</t>
+  </si>
+  <si>
+    <t>613-804-9028 1:A &amp; W  - Winchester</t>
+  </si>
+  <si>
+    <t>Tania@premium-construction.ca, sabbi@premium-construction.ca, admin@premium-construction.ca</t>
+  </si>
+  <si>
+    <t>P.O. Box 45057Kanata South Kanata Ontario K2M 2Y1 Canada</t>
+  </si>
+  <si>
+    <t>A &amp; W -  Winchester , Main Street WestWinchester North Dundas Ontario  Canada</t>
+  </si>
+  <si>
+    <t>A &amp; W  - Winchester</t>
+  </si>
+  <si>
+    <t>613-804-9028 1:Christian Horizon School</t>
+  </si>
+  <si>
+    <t>Christian Horizon School1335 Carling Ave. Ottawa Ontario  Canada</t>
+  </si>
+  <si>
+    <t>Christian Horizon School</t>
+  </si>
+  <si>
+    <t>613-822-6594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone:613-822-6594 </t>
+  </si>
+  <si>
+    <t>kyle@blackforestcontractor.ca</t>
+  </si>
+  <si>
+    <t>770 Snake Island Road Ottawa Ontario K0A 2P0 Canada</t>
+  </si>
+  <si>
+    <t>613-831-2383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone:613-831-2383 </t>
+  </si>
+  <si>
+    <t>goulbourn@bellnet.ca</t>
+  </si>
+  <si>
+    <t>1 Carleton Cathcart St Ottawa Ontario  Canada</t>
+  </si>
+  <si>
+    <t>1 Carleton Cathcart St Stittsville Ontario  Canada</t>
+  </si>
+  <si>
+    <t>613-831-2383 1</t>
+  </si>
+  <si>
+    <t>126 Hamilton St Richmond Ontario  Canada</t>
+  </si>
+  <si>
+    <t>6172199 Canada Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone:613-323-5914 </t>
+  </si>
+  <si>
+    <t>billing.6172199canadainc@gmail.com</t>
+  </si>
+  <si>
+    <t>1675 Merivale Rd. Ottawa Ontario K2G 3K2</t>
+  </si>
+  <si>
+    <t>6172199 Canada Inc.:McDonalds - Baseline Rd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone:613-723-5719 </t>
+  </si>
+  <si>
+    <t>1675 Merivale Rd Ottawa Ontario K2G 3K2 Canada</t>
+  </si>
+  <si>
+    <t>McDonalds Restaurant 1850 Baseline Rd Ottawa Ontario  Canada</t>
+  </si>
+  <si>
+    <t>McDonalds - Baseline Rd.</t>
+  </si>
+  <si>
+    <t>6172199 Canada Inc.:McDonalds - Bronson</t>
+  </si>
+  <si>
+    <t>McDonalds Restaurant</t>
+  </si>
+  <si>
+    <t>670 Bronson St. Ottawa Ontario</t>
+  </si>
+  <si>
+    <t>McDonalds - Bronson</t>
+  </si>
+  <si>
+    <t>6172199 Canada Inc.:McDonalds - Carling</t>
+  </si>
+  <si>
+    <t>McDonalds - Carling</t>
+  </si>
+  <si>
+    <t>1880 Carling Ave Ottawa Ontario</t>
+  </si>
+  <si>
+    <t>6172199 Canada Inc.:McDonalds - Meadowlands</t>
+  </si>
+  <si>
+    <t>888 Meadowlands Dr. E Ottawa Ontario K2C 4R2</t>
+  </si>
+  <si>
+    <t>McDonalds - Meadowlands</t>
+  </si>
+  <si>
+    <t>6172199 Canada Inc.:McDonald's Restaurant</t>
+  </si>
+  <si>
+    <t>McDonald's Restaurant 1675 Merivale Rd. Ottawa Ontario K2G 3K2</t>
+  </si>
+  <si>
+    <t>McDonald's Restaurant</t>
+  </si>
+  <si>
+    <t>6172199 Canada Inc.:McDonalds Restaurant - 853 Bank St.</t>
+  </si>
+  <si>
+    <t>853 Bank St. Ottawa Ontario</t>
+  </si>
+  <si>
+    <t>McDonalds Restaurant - 853 Bank St.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,13 +872,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -641,11 +1202,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="41.28515625" customWidth="1"/>
@@ -660,7 +1221,7 @@
     <col min="11" max="11" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -690,7 +1251,7 @@
       <c r="N1" s="2"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -714,7 +1275,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="23.25">
+    <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -740,7 +1301,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="23.25">
+    <row r="4" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -768,7 +1329,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -792,7 +1353,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="23.25">
+    <row r="6" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -820,7 +1381,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="23.25">
+    <row r="7" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -848,7 +1409,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="23.25">
+    <row r="8" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
@@ -876,7 +1437,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="23.25">
+    <row r="9" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
@@ -904,7 +1465,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="23.25">
+    <row r="10" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
@@ -930,7 +1491,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="23.25">
+    <row r="11" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
@@ -958,7 +1519,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -982,7 +1543,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="23.25">
+    <row r="13" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
@@ -1010,7 +1571,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="23.25">
+    <row r="14" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
@@ -1038,7 +1599,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>57</v>
       </c>
@@ -1064,7 +1625,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="23.25">
+    <row r="16" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -1092,7 +1653,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="23.25">
+    <row r="17" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>65</v>
       </c>
@@ -1120,14 +1681,24 @@
       <c r="N17" s="2"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1136,14 +1707,22 @@
       <c r="N18" s="2"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+    <row r="19" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1152,14 +1731,24 @@
       <c r="N19" s="2"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1168,14 +1757,22 @@
       <c r="N20" s="2"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1184,14 +1781,22 @@
       <c r="N21" s="2"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1200,14 +1805,26 @@
       <c r="N22" s="2"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1216,14 +1833,26 @@
       <c r="N23" s="2"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+    <row r="24" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1232,14 +1861,26 @@
       <c r="N24" s="2"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1248,14 +1889,16 @@
       <c r="N25" s="2"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+    <row r="26" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="9"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1264,14 +1907,22 @@
       <c r="N26" s="2"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1280,14 +1931,26 @@
       <c r="N27" s="2"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1296,14 +1959,14 @@
       <c r="N28" s="2"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="9"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1312,14 +1975,16 @@
       <c r="N29" s="2"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" s="9"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1328,14 +1993,14 @@
       <c r="N30" s="2"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="9"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1343,14 +2008,16 @@
       <c r="N31" s="2"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+    <row r="32" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="9"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1358,14 +2025,24 @@
       <c r="N32" s="2"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+    <row r="33" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1373,14 +2050,22 @@
       <c r="N33" s="2"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1388,14 +2073,26 @@
       <c r="N34" s="2"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+    <row r="35" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1403,14 +2100,24 @@
       <c r="N35" s="2"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1418,14 +2125,24 @@
       <c r="N36" s="2"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+    <row r="37" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1433,14 +2150,22 @@
       <c r="N37" s="2"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -1448,14 +2173,24 @@
       <c r="N38" s="2"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+    <row r="39" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -1463,14 +2198,24 @@
       <c r="N39" s="2"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -1478,14 +2223,26 @@
       <c r="N40" s="2"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -1493,14 +2250,16 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G42" s="9"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -1508,14 +2267,22 @@
       <c r="N42" s="2"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+    <row r="43" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -1523,14 +2290,22 @@
       <c r="N43" s="2"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -1538,14 +2313,24 @@
       <c r="N44" s="2"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+    <row r="45" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -1553,14 +2338,26 @@
       <c r="N45" s="2"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+    <row r="46" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -1568,14 +2365,26 @@
       <c r="N46" s="2"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+    <row r="47" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -1583,14 +2392,26 @@
       <c r="N47" s="2"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -1598,14 +2419,28 @@
       <c r="N48" s="2"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+    <row r="49" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -1613,14 +2448,24 @@
       <c r="N49" s="2"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+    <row r="50" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -1628,14 +2473,24 @@
       <c r="N50" s="2"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+    <row r="51" spans="1:15" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -1643,14 +2498,24 @@
       <c r="N51" s="2"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+    <row r="52" spans="1:15" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>173</v>
+      </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -1658,14 +2523,24 @@
       <c r="N52" s="2"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+    <row r="53" spans="1:15" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="3"/>
@@ -1673,14 +2548,26 @@
       <c r="N53" s="2"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+    <row r="54" spans="1:15" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -1688,14 +2575,24 @@
       <c r="N54" s="2"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+    <row r="55" spans="1:15" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>182</v>
+      </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -1703,14 +2600,24 @@
       <c r="N55" s="2"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+    <row r="56" spans="1:15" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -1718,14 +2625,24 @@
       <c r="N56" s="2"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+    <row r="57" spans="1:15" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>189</v>
+      </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -1733,14 +2650,24 @@
       <c r="N57" s="2"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+    <row r="58" spans="1:15" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>192</v>
+      </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -1748,14 +2675,26 @@
       <c r="N58" s="2"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
+    <row r="59" spans="1:15" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -1763,14 +2702,26 @@
       <c r="N59" s="2"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6" t="s">
+        <v>196</v>
+      </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -1778,14 +2729,28 @@
       <c r="N60" s="2"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+    <row r="61" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>200</v>
+      </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -1793,14 +2758,28 @@
       <c r="N61" s="2"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+    <row r="62" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>205</v>
+      </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -1808,14 +2787,24 @@
       <c r="N62" s="2"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+    <row r="63" spans="1:15" ht="68.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>213</v>
+      </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -1823,14 +2812,24 @@
       <c r="N63" s="2"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
+    <row r="64" spans="1:15" ht="68.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -1838,14 +2837,26 @@
       <c r="N64" s="2"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -1853,14 +2864,28 @@
       <c r="N65" s="2"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
+    <row r="66" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>221</v>
+      </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -1868,14 +2893,28 @@
       <c r="N66" s="2"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
+    <row r="67" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>226</v>
+      </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -1883,14 +2922,26 @@
       <c r="N67" s="2"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+    <row r="68" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>228</v>
+      </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -1898,14 +2949,26 @@
       <c r="N68" s="2"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+    <row r="69" spans="1:15" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>236</v>
+      </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -1913,14 +2976,26 @@
       <c r="N69" s="2"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>240</v>
+      </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -1928,14 +3003,16 @@
       <c r="N70" s="2"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G71" s="9"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -1943,14 +3020,24 @@
       <c r="N71" s="2"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>242</v>
+      </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -1958,14 +3045,16 @@
       <c r="N72" s="2"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
+    <row r="73" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="G73" s="9"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -1973,14 +3062,26 @@
       <c r="N73" s="2"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+    <row r="74" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>246</v>
+      </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -1988,14 +3089,26 @@
       <c r="N74" s="2"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+    <row r="75" spans="1:15" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>249</v>
+      </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -2003,14 +3116,26 @@
       <c r="N75" s="2"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>252</v>
+      </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -2018,14 +3143,16 @@
       <c r="N76" s="2"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G77" s="9"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -2033,7 +3160,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2048,7 +3175,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2063,7 +3190,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2078,7 +3205,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2093,7 +3220,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2108,7 +3235,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2123,7 +3250,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2138,7 +3265,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2153,7 +3280,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2168,7 +3295,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2183,7 +3310,7 @@
       <c r="N87" s="2"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2198,7 +3325,7 @@
       <c r="N88" s="2"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2213,7 +3340,7 @@
       <c r="N89" s="2"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2228,7 +3355,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2243,7 +3370,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2258,7 +3385,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2273,7 +3400,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2288,7 +3415,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2303,7 +3430,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2318,7 +3445,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2333,7 +3460,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2348,7 +3475,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2363,7 +3490,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2378,7 +3505,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2393,7 +3520,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2408,7 +3535,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2423,7 +3550,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2438,7 +3565,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2453,7 +3580,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2468,7 +3595,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2483,7 +3610,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2498,7 +3625,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2513,7 +3640,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2528,7 +3655,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2543,7 +3670,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2558,7 +3685,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -2573,7 +3700,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -2588,7 +3715,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -2603,7 +3730,7 @@
       <c r="N115" s="2"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -2618,7 +3745,7 @@
       <c r="N116" s="2"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -2633,7 +3760,7 @@
       <c r="N117" s="2"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -2648,7 +3775,7 @@
       <c r="N118" s="2"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -2663,7 +3790,7 @@
       <c r="N119" s="2"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -2678,7 +3805,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -2693,7 +3820,7 @@
       <c r="N121" s="2"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -2708,7 +3835,7 @@
       <c r="N122" s="2"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -2723,7 +3850,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -2738,7 +3865,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -2753,7 +3880,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -2768,7 +3895,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -2783,7 +3910,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -2798,7 +3925,7 @@
       <c r="N128" s="2"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -2813,7 +3940,7 @@
       <c r="N129" s="2"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -2828,7 +3955,7 @@
       <c r="N130" s="2"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -2843,7 +3970,7 @@
       <c r="N131" s="2"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -2858,7 +3985,7 @@
       <c r="N132" s="2"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -2873,7 +4000,7 @@
       <c r="N133" s="2"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -2888,7 +4015,7 @@
       <c r="N134" s="2"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -2903,7 +4030,7 @@
       <c r="N135" s="2"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -2918,7 +4045,7 @@
       <c r="N136" s="2"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -2933,7 +4060,7 @@
       <c r="N137" s="2"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -2948,7 +4075,7 @@
       <c r="N138" s="2"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -2963,7 +4090,7 @@
       <c r="N139" s="2"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -2978,7 +4105,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -2993,7 +4120,7 @@
       <c r="N141" s="2"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -3008,7 +4135,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -3023,7 +4150,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -3038,7 +4165,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -3053,7 +4180,7 @@
       <c r="N145" s="2"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3068,7 +4195,7 @@
       <c r="N146" s="2"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -3083,7 +4210,7 @@
       <c r="N147" s="2"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -3098,7 +4225,7 @@
       <c r="N148" s="2"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -3113,7 +4240,7 @@
       <c r="N149" s="2"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -3128,7 +4255,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -3143,7 +4270,7 @@
       <c r="N151" s="2"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -3158,7 +4285,7 @@
       <c r="N152" s="2"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -3173,7 +4300,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -3188,7 +4315,7 @@
       <c r="N154" s="2"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -3203,7 +4330,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -3218,7 +4345,7 @@
       <c r="N156" s="2"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -3233,7 +4360,7 @@
       <c r="N157" s="2"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -3248,7 +4375,7 @@
       <c r="N158" s="2"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -3263,7 +4390,7 @@
       <c r="N159" s="2"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -3278,7 +4405,7 @@
       <c r="N160" s="2"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -3293,7 +4420,7 @@
       <c r="N161" s="2"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -3308,7 +4435,7 @@
       <c r="N162" s="2"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -3323,7 +4450,7 @@
       <c r="N163" s="2"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -3338,7 +4465,7 @@
       <c r="N164" s="2"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -3353,7 +4480,7 @@
       <c r="N165" s="2"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -3368,7 +4495,7 @@
       <c r="N166" s="2"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -3383,7 +4510,7 @@
       <c r="N167" s="2"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -3398,7 +4525,7 @@
       <c r="N168" s="2"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -3413,7 +4540,7 @@
       <c r="N169" s="2"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -3428,7 +4555,7 @@
       <c r="N170" s="2"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -3443,7 +4570,7 @@
       <c r="N171" s="2"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -3458,7 +4585,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -3473,7 +4600,7 @@
       <c r="N173" s="2"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -3488,7 +4615,7 @@
       <c r="N174" s="2"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -3503,7 +4630,7 @@
       <c r="N175" s="2"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -3518,7 +4645,7 @@
       <c r="N176" s="2"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -3533,7 +4660,7 @@
       <c r="N177" s="2"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -3548,7 +4675,7 @@
       <c r="N178" s="2"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -3563,7 +4690,7 @@
       <c r="N179" s="2"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -3578,7 +4705,7 @@
       <c r="N180" s="2"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -3593,7 +4720,7 @@
       <c r="N181" s="2"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -3608,7 +4735,7 @@
       <c r="N182" s="2"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -3623,7 +4750,7 @@
       <c r="N183" s="2"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -3638,7 +4765,7 @@
       <c r="N184" s="2"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -3653,7 +4780,7 @@
       <c r="N185" s="2"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -3668,7 +4795,7 @@
       <c r="N186" s="2"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -3683,7 +4810,7 @@
       <c r="N187" s="2"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -3698,7 +4825,7 @@
       <c r="N188" s="2"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -3713,7 +4840,7 @@
       <c r="N189" s="2"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -3728,7 +4855,7 @@
       <c r="N190" s="2"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -3743,7 +4870,7 @@
       <c r="N191" s="2"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -3758,7 +4885,7 @@
       <c r="N192" s="2"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -3773,7 +4900,7 @@
       <c r="N193" s="2"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -3788,7 +4915,7 @@
       <c r="N194" s="2"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -3803,7 +4930,7 @@
       <c r="N195" s="2"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -3818,7 +4945,7 @@
       <c r="N196" s="2"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -3833,7 +4960,7 @@
       <c r="N197" s="2"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -3848,7 +4975,7 @@
       <c r="N198" s="2"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -3863,7 +4990,7 @@
       <c r="N199" s="2"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -3878,7 +5005,7 @@
       <c r="N200" s="2"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -3893,7 +5020,7 @@
       <c r="N201" s="2"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -3908,7 +5035,7 @@
       <c r="N202" s="2"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -3923,7 +5050,7 @@
       <c r="N203" s="2"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -3938,7 +5065,7 @@
       <c r="N204" s="2"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -3953,7 +5080,7 @@
       <c r="N205" s="2"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -3968,7 +5095,7 @@
       <c r="N206" s="2"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -3983,7 +5110,7 @@
       <c r="N207" s="2"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -3998,7 +5125,7 @@
       <c r="N208" s="2"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -4013,7 +5140,7 @@
       <c r="N209" s="2"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -4028,7 +5155,7 @@
       <c r="N210" s="2"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -4043,7 +5170,7 @@
       <c r="N211" s="2"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -4058,7 +5185,7 @@
       <c r="N212" s="2"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -4073,7 +5200,7 @@
       <c r="N213" s="2"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -4088,7 +5215,7 @@
       <c r="N214" s="2"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -4103,7 +5230,7 @@
       <c r="N215" s="2"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -4118,7 +5245,7 @@
       <c r="N216" s="2"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -4133,7 +5260,7 @@
       <c r="N217" s="2"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -4148,7 +5275,7 @@
       <c r="N218" s="2"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -4163,7 +5290,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -4178,7 +5305,7 @@
       <c r="N220" s="2"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -4193,7 +5320,7 @@
       <c r="N221" s="2"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -4208,7 +5335,7 @@
       <c r="N222" s="2"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -4223,7 +5350,7 @@
       <c r="N223" s="2"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -4238,7 +5365,7 @@
       <c r="N224" s="2"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -4253,7 +5380,7 @@
       <c r="N225" s="2"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -4268,7 +5395,7 @@
       <c r="N226" s="2"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -4283,7 +5410,7 @@
       <c r="N227" s="2"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -4298,7 +5425,7 @@
       <c r="N228" s="2"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -4313,7 +5440,7 @@
       <c r="N229" s="2"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -4328,7 +5455,7 @@
       <c r="N230" s="2"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -4343,7 +5470,7 @@
       <c r="N231" s="2"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -4358,7 +5485,7 @@
       <c r="N232" s="2"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -4373,7 +5500,7 @@
       <c r="N233" s="2"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -4388,7 +5515,7 @@
       <c r="N234" s="2"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -4403,7 +5530,7 @@
       <c r="N235" s="2"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -4418,7 +5545,7 @@
       <c r="N236" s="2"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -4433,7 +5560,7 @@
       <c r="N237" s="2"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -4448,7 +5575,7 @@
       <c r="N238" s="2"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -4463,7 +5590,7 @@
       <c r="N239" s="2"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -4478,7 +5605,7 @@
       <c r="N240" s="2"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -4493,7 +5620,7 @@
       <c r="N241" s="2"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -4508,7 +5635,7 @@
       <c r="N242" s="2"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -4523,7 +5650,7 @@
       <c r="N243" s="2"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -4538,7 +5665,7 @@
       <c r="N244" s="2"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -4553,7 +5680,7 @@
       <c r="N245" s="2"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -4568,7 +5695,7 @@
       <c r="N246" s="2"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -4583,7 +5710,7 @@
       <c r="N247" s="2"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -4598,7 +5725,7 @@
       <c r="N248" s="2"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -4613,7 +5740,7 @@
       <c r="N249" s="2"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -4628,7 +5755,7 @@
       <c r="N250" s="2"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -4643,7 +5770,7 @@
       <c r="N251" s="2"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -4658,7 +5785,7 @@
       <c r="N252" s="2"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -4673,7 +5800,7 @@
       <c r="N253" s="2"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -4688,7 +5815,7 @@
       <c r="N254" s="2"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -4703,7 +5830,7 @@
       <c r="N255" s="2"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -4718,7 +5845,7 @@
       <c r="N256" s="2"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -4731,7 +5858,7 @@
       <c r="J257" s="1"/>
       <c r="K257" s="2"/>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -4744,7 +5871,7 @@
       <c r="J258" s="1"/>
       <c r="K258" s="2"/>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -4757,7 +5884,7 @@
       <c r="J259" s="1"/>
       <c r="K259" s="2"/>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -4770,7 +5897,7 @@
       <c r="J260" s="1"/>
       <c r="K260" s="2"/>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -4783,7 +5910,7 @@
       <c r="J261" s="1"/>
       <c r="K261" s="2"/>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -4796,7 +5923,7 @@
       <c r="J262" s="1"/>
       <c r="K262" s="2"/>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -4809,7 +5936,7 @@
       <c r="J263" s="1"/>
       <c r="K263" s="2"/>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -4822,7 +5949,7 @@
       <c r="J264" s="1"/>
       <c r="K264" s="2"/>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -4835,7 +5962,7 @@
       <c r="J265" s="1"/>
       <c r="K265" s="2"/>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -4848,7 +5975,7 @@
       <c r="J266" s="1"/>
       <c r="K266" s="2"/>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -4861,7 +5988,7 @@
       <c r="J267" s="1"/>
       <c r="K267" s="2"/>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -4874,7 +6001,7 @@
       <c r="J268" s="1"/>
       <c r="K268" s="2"/>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -4887,7 +6014,7 @@
       <c r="J269" s="1"/>
       <c r="K269" s="2"/>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -4900,7 +6027,7 @@
       <c r="J270" s="1"/>
       <c r="K270" s="2"/>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -4913,7 +6040,7 @@
       <c r="J271" s="1"/>
       <c r="K271" s="2"/>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -4926,7 +6053,7 @@
       <c r="J272" s="1"/>
       <c r="K272" s="2"/>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -4939,7 +6066,7 @@
       <c r="J273" s="1"/>
       <c r="K273" s="2"/>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -4952,7 +6079,7 @@
       <c r="J274" s="1"/>
       <c r="K274" s="2"/>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -4965,7 +6092,7 @@
       <c r="J275" s="1"/>
       <c r="K275" s="2"/>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -4978,7 +6105,7 @@
       <c r="J276" s="1"/>
       <c r="K276" s="2"/>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -4991,7 +6118,7 @@
       <c r="J277" s="1"/>
       <c r="K277" s="2"/>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -5004,7 +6131,7 @@
       <c r="J278" s="1"/>
       <c r="K278" s="2"/>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -5017,7 +6144,7 @@
       <c r="J279" s="1"/>
       <c r="K279" s="2"/>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -5030,7 +6157,7 @@
       <c r="J280" s="1"/>
       <c r="K280" s="2"/>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -5043,7 +6170,7 @@
       <c r="J281" s="1"/>
       <c r="K281" s="2"/>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -5056,7 +6183,7 @@
       <c r="J282" s="1"/>
       <c r="K282" s="2"/>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -5069,7 +6196,7 @@
       <c r="J283" s="1"/>
       <c r="K283" s="2"/>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -5082,7 +6209,7 @@
       <c r="J284" s="1"/>
       <c r="K284" s="2"/>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -5095,7 +6222,7 @@
       <c r="J285" s="1"/>
       <c r="K285" s="2"/>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -5108,7 +6235,7 @@
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -5121,7 +6248,7 @@
       <c r="J287" s="1"/>
       <c r="K287" s="2"/>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -5134,7 +6261,7 @@
       <c r="J288" s="1"/>
       <c r="K288" s="2"/>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -5147,7 +6274,7 @@
       <c r="J289" s="1"/>
       <c r="K289" s="2"/>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -5160,7 +6287,7 @@
       <c r="J290" s="1"/>
       <c r="K290" s="2"/>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -5173,7 +6300,7 @@
       <c r="J291" s="1"/>
       <c r="K291" s="2"/>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -5186,7 +6313,7 @@
       <c r="J292" s="1"/>
       <c r="K292" s="2"/>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -5199,7 +6326,7 @@
       <c r="J293" s="1"/>
       <c r="K293" s="2"/>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -5212,7 +6339,7 @@
       <c r="J294" s="1"/>
       <c r="K294" s="2"/>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -5225,7 +6352,7 @@
       <c r="J295" s="1"/>
       <c r="K295" s="2"/>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -5238,7 +6365,7 @@
       <c r="J296" s="1"/>
       <c r="K296" s="2"/>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -5251,7 +6378,7 @@
       <c r="J297" s="1"/>
       <c r="K297" s="2"/>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -5264,7 +6391,7 @@
       <c r="J298" s="1"/>
       <c r="K298" s="2"/>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -5277,7 +6404,7 @@
       <c r="J299" s="1"/>
       <c r="K299" s="2"/>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -5290,7 +6417,7 @@
       <c r="J300" s="1"/>
       <c r="K300" s="2"/>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -5303,7 +6430,7 @@
       <c r="J301" s="1"/>
       <c r="K301" s="2"/>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -5316,7 +6443,7 @@
       <c r="J302" s="1"/>
       <c r="K302" s="2"/>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -5329,7 +6456,7 @@
       <c r="J303" s="1"/>
       <c r="K303" s="2"/>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -5342,7 +6469,7 @@
       <c r="J304" s="1"/>
       <c r="K304" s="2"/>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -5355,7 +6482,7 @@
       <c r="J305" s="1"/>
       <c r="K305" s="2"/>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -5368,7 +6495,7 @@
       <c r="J306" s="1"/>
       <c r="K306" s="2"/>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -5381,7 +6508,7 @@
       <c r="J307" s="1"/>
       <c r="K307" s="2"/>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -5394,7 +6521,7 @@
       <c r="J308" s="1"/>
       <c r="K308" s="2"/>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -5407,7 +6534,7 @@
       <c r="J309" s="1"/>
       <c r="K309" s="2"/>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -5420,7 +6547,7 @@
       <c r="J310" s="1"/>
       <c r="K310" s="2"/>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -5433,7 +6560,7 @@
       <c r="J311" s="1"/>
       <c r="K311" s="2"/>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -5446,7 +6573,7 @@
       <c r="J312" s="1"/>
       <c r="K312" s="2"/>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -5459,7 +6586,7 @@
       <c r="J313" s="1"/>
       <c r="K313" s="2"/>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -5472,7 +6599,7 @@
       <c r="J314" s="1"/>
       <c r="K314" s="2"/>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -5485,7 +6612,7 @@
       <c r="J315" s="1"/>
       <c r="K315" s="2"/>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -5498,7 +6625,7 @@
       <c r="J316" s="1"/>
       <c r="K316" s="2"/>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -5511,7 +6638,7 @@
       <c r="J317" s="1"/>
       <c r="K317" s="2"/>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -5524,7 +6651,7 @@
       <c r="J318" s="1"/>
       <c r="K318" s="2"/>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -5537,7 +6664,7 @@
       <c r="J319" s="1"/>
       <c r="K319" s="2"/>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -5550,7 +6677,7 @@
       <c r="J320" s="1"/>
       <c r="K320" s="2"/>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -5563,7 +6690,7 @@
       <c r="J321" s="1"/>
       <c r="K321" s="2"/>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -5576,7 +6703,7 @@
       <c r="J322" s="1"/>
       <c r="K322" s="2"/>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -5589,7 +6716,7 @@
       <c r="J323" s="1"/>
       <c r="K323" s="2"/>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -5602,7 +6729,7 @@
       <c r="J324" s="1"/>
       <c r="K324" s="2"/>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -5615,7 +6742,7 @@
       <c r="J325" s="1"/>
       <c r="K325" s="2"/>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -5628,7 +6755,7 @@
       <c r="J326" s="1"/>
       <c r="K326" s="2"/>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -5641,7 +6768,7 @@
       <c r="J327" s="1"/>
       <c r="K327" s="2"/>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -5654,7 +6781,7 @@
       <c r="J328" s="1"/>
       <c r="K328" s="2"/>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -5667,7 +6794,7 @@
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -5680,7 +6807,7 @@
       <c r="J330" s="1"/>
       <c r="K330" s="2"/>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -5693,7 +6820,7 @@
       <c r="J331" s="1"/>
       <c r="K331" s="2"/>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -5706,7 +6833,7 @@
       <c r="J332" s="1"/>
       <c r="K332" s="2"/>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -5719,7 +6846,7 @@
       <c r="J333" s="1"/>
       <c r="K333" s="2"/>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -5732,7 +6859,7 @@
       <c r="J334" s="1"/>
       <c r="K334" s="2"/>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -5745,7 +6872,7 @@
       <c r="J335" s="1"/>
       <c r="K335" s="2"/>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -5758,7 +6885,7 @@
       <c r="J336" s="1"/>
       <c r="K336" s="2"/>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -5771,7 +6898,7 @@
       <c r="J337" s="1"/>
       <c r="K337" s="2"/>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -5784,7 +6911,7 @@
       <c r="J338" s="1"/>
       <c r="K338" s="2"/>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -5797,7 +6924,7 @@
       <c r="J339" s="1"/>
       <c r="K339" s="2"/>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -5810,7 +6937,7 @@
       <c r="J340" s="1"/>
       <c r="K340" s="2"/>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -5823,7 +6950,7 @@
       <c r="J341" s="1"/>
       <c r="K341" s="2"/>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -5836,7 +6963,7 @@
       <c r="J342" s="1"/>
       <c r="K342" s="2"/>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -5849,7 +6976,7 @@
       <c r="J343" s="1"/>
       <c r="K343" s="2"/>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -5862,7 +6989,7 @@
       <c r="J344" s="1"/>
       <c r="K344" s="2"/>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -5875,7 +7002,7 @@
       <c r="J345" s="1"/>
       <c r="K345" s="2"/>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -5888,7 +7015,7 @@
       <c r="J346" s="1"/>
       <c r="K346" s="2"/>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -5901,7 +7028,7 @@
       <c r="J347" s="1"/>
       <c r="K347" s="2"/>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -5914,7 +7041,7 @@
       <c r="J348" s="1"/>
       <c r="K348" s="2"/>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -5927,7 +7054,7 @@
       <c r="J349" s="1"/>
       <c r="K349" s="2"/>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -5940,7 +7067,7 @@
       <c r="J350" s="1"/>
       <c r="K350" s="2"/>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -5953,7 +7080,7 @@
       <c r="J351" s="1"/>
       <c r="K351" s="2"/>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -5966,7 +7093,7 @@
       <c r="J352" s="1"/>
       <c r="K352" s="2"/>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -5979,7 +7106,7 @@
       <c r="J353" s="1"/>
       <c r="K353" s="2"/>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -5992,7 +7119,7 @@
       <c r="J354" s="1"/>
       <c r="K354" s="2"/>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -6005,7 +7132,7 @@
       <c r="J355" s="1"/>
       <c r="K355" s="2"/>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -6018,7 +7145,7 @@
       <c r="J356" s="1"/>
       <c r="K356" s="2"/>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -6031,7 +7158,7 @@
       <c r="J357" s="1"/>
       <c r="K357" s="2"/>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -6044,7 +7171,7 @@
       <c r="J358" s="1"/>
       <c r="K358" s="2"/>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -6057,7 +7184,7 @@
       <c r="J359" s="1"/>
       <c r="K359" s="2"/>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -6070,7 +7197,7 @@
       <c r="J360" s="1"/>
       <c r="K360" s="2"/>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -6083,7 +7210,7 @@
       <c r="J361" s="1"/>
       <c r="K361" s="2"/>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -6096,7 +7223,7 @@
       <c r="J362" s="1"/>
       <c r="K362" s="2"/>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -6109,7 +7236,7 @@
       <c r="J363" s="1"/>
       <c r="K363" s="2"/>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -6122,7 +7249,7 @@
       <c r="J364" s="1"/>
       <c r="K364" s="2"/>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -6135,7 +7262,7 @@
       <c r="J365" s="1"/>
       <c r="K365" s="2"/>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -6148,7 +7275,7 @@
       <c r="J366" s="1"/>
       <c r="K366" s="2"/>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -6161,7 +7288,7 @@
       <c r="J367" s="1"/>
       <c r="K367" s="2"/>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -6174,7 +7301,7 @@
       <c r="J368" s="1"/>
       <c r="K368" s="2"/>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -6187,7 +7314,7 @@
       <c r="J369" s="1"/>
       <c r="K369" s="2"/>
     </row>
-    <row r="370" spans="1:11">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -6200,7 +7327,7 @@
       <c r="J370" s="1"/>
       <c r="K370" s="2"/>
     </row>
-    <row r="371" spans="1:11">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -6213,7 +7340,7 @@
       <c r="J371" s="1"/>
       <c r="K371" s="2"/>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -6226,7 +7353,7 @@
       <c r="J372" s="1"/>
       <c r="K372" s="2"/>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -6239,7 +7366,7 @@
       <c r="J373" s="1"/>
       <c r="K373" s="2"/>
     </row>
-    <row r="374" spans="1:11">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -6252,7 +7379,7 @@
       <c r="J374" s="1"/>
       <c r="K374" s="2"/>
     </row>
-    <row r="375" spans="1:11">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -6265,7 +7392,7 @@
       <c r="J375" s="1"/>
       <c r="K375" s="2"/>
     </row>
-    <row r="376" spans="1:11">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -6278,7 +7405,7 @@
       <c r="J376" s="1"/>
       <c r="K376" s="2"/>
     </row>
-    <row r="377" spans="1:11">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -6291,7 +7418,7 @@
       <c r="J377" s="1"/>
       <c r="K377" s="2"/>
     </row>
-    <row r="378" spans="1:11">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -6304,7 +7431,7 @@
       <c r="J378" s="1"/>
       <c r="K378" s="2"/>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -6317,7 +7444,7 @@
       <c r="J379" s="1"/>
       <c r="K379" s="2"/>
     </row>
-    <row r="380" spans="1:11">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -6330,7 +7457,7 @@
       <c r="J380" s="1"/>
       <c r="K380" s="2"/>
     </row>
-    <row r="381" spans="1:11">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -6343,7 +7470,7 @@
       <c r="J381" s="1"/>
       <c r="K381" s="2"/>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -6356,7 +7483,7 @@
       <c r="J382" s="1"/>
       <c r="K382" s="2"/>
     </row>
-    <row r="383" spans="1:11">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -6369,7 +7496,7 @@
       <c r="J383" s="1"/>
       <c r="K383" s="2"/>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -6382,7 +7509,7 @@
       <c r="J384" s="1"/>
       <c r="K384" s="2"/>
     </row>
-    <row r="385" spans="1:11">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -6395,7 +7522,7 @@
       <c r="J385" s="1"/>
       <c r="K385" s="1"/>
     </row>
-    <row r="386" spans="1:11">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -6408,7 +7535,7 @@
       <c r="J386" s="1"/>
       <c r="K386" s="2"/>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -6421,7 +7548,7 @@
       <c r="J387" s="1"/>
       <c r="K387" s="2"/>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -6434,7 +7561,7 @@
       <c r="J388" s="1"/>
       <c r="K388" s="2"/>
     </row>
-    <row r="389" spans="1:11">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -6447,7 +7574,7 @@
       <c r="J389" s="1"/>
       <c r="K389" s="2"/>
     </row>
-    <row r="390" spans="1:11">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -6460,7 +7587,7 @@
       <c r="J390" s="1"/>
       <c r="K390" s="2"/>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -6473,7 +7600,7 @@
       <c r="J391" s="1"/>
       <c r="K391" s="2"/>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -6486,7 +7613,7 @@
       <c r="J392" s="1"/>
       <c r="K392" s="2"/>
     </row>
-    <row r="393" spans="1:11">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -6499,7 +7626,7 @@
       <c r="J393" s="1"/>
       <c r="K393" s="2"/>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -6512,7 +7639,7 @@
       <c r="J394" s="1"/>
       <c r="K394" s="2"/>
     </row>
-    <row r="395" spans="1:11">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -6525,7 +7652,7 @@
       <c r="J395" s="1"/>
       <c r="K395" s="1"/>
     </row>
-    <row r="396" spans="1:11">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -6538,7 +7665,7 @@
       <c r="J396" s="1"/>
       <c r="K396" s="2"/>
     </row>
-    <row r="397" spans="1:11">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -6551,7 +7678,7 @@
       <c r="J397" s="1"/>
       <c r="K397" s="2"/>
     </row>
-    <row r="398" spans="1:11">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -6564,7 +7691,7 @@
       <c r="J398" s="1"/>
       <c r="K398" s="2"/>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -6577,7 +7704,7 @@
       <c r="J399" s="1"/>
       <c r="K399" s="2"/>
     </row>
-    <row r="400" spans="1:11">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -6590,7 +7717,7 @@
       <c r="J400" s="1"/>
       <c r="K400" s="2"/>
     </row>
-    <row r="401" spans="1:11">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -6603,7 +7730,7 @@
       <c r="J401" s="1"/>
       <c r="K401" s="2"/>
     </row>
-    <row r="402" spans="1:11">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -6616,7 +7743,7 @@
       <c r="J402" s="1"/>
       <c r="K402" s="2"/>
     </row>
-    <row r="403" spans="1:11">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -6629,7 +7756,7 @@
       <c r="J403" s="1"/>
       <c r="K403" s="2"/>
     </row>
-    <row r="404" spans="1:11">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -6642,7 +7769,7 @@
       <c r="J404" s="1"/>
       <c r="K404" s="2"/>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -6655,7 +7782,7 @@
       <c r="J405" s="1"/>
       <c r="K405" s="2"/>
     </row>
-    <row r="406" spans="1:11">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -6668,7 +7795,7 @@
       <c r="J406" s="1"/>
       <c r="K406" s="2"/>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -6681,7 +7808,7 @@
       <c r="J407" s="1"/>
       <c r="K407" s="2"/>
     </row>
-    <row r="408" spans="1:11">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -6694,7 +7821,7 @@
       <c r="J408" s="1"/>
       <c r="K408" s="2"/>
     </row>
-    <row r="409" spans="1:11">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -6707,7 +7834,7 @@
       <c r="J409" s="1"/>
       <c r="K409" s="2"/>
     </row>
-    <row r="410" spans="1:11">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -6720,7 +7847,7 @@
       <c r="J410" s="1"/>
       <c r="K410" s="2"/>
     </row>
-    <row r="411" spans="1:11">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -6733,7 +7860,7 @@
       <c r="J411" s="1"/>
       <c r="K411" s="2"/>
     </row>
-    <row r="412" spans="1:11">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -6746,7 +7873,7 @@
       <c r="J412" s="1"/>
       <c r="K412" s="2"/>
     </row>
-    <row r="413" spans="1:11">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -6759,7 +7886,7 @@
       <c r="J413" s="1"/>
       <c r="K413" s="2"/>
     </row>
-    <row r="414" spans="1:11">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -6772,7 +7899,7 @@
       <c r="J414" s="1"/>
       <c r="K414" s="2"/>
     </row>
-    <row r="415" spans="1:11">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -6785,7 +7912,7 @@
       <c r="J415" s="1"/>
       <c r="K415" s="2"/>
     </row>
-    <row r="416" spans="1:11">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -6798,7 +7925,7 @@
       <c r="J416" s="1"/>
       <c r="K416" s="2"/>
     </row>
-    <row r="417" spans="1:11">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -6811,7 +7938,7 @@
       <c r="J417" s="1"/>
       <c r="K417" s="2"/>
     </row>
-    <row r="418" spans="1:11">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -6824,7 +7951,7 @@
       <c r="J418" s="1"/>
       <c r="K418" s="2"/>
     </row>
-    <row r="419" spans="1:11">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -6837,7 +7964,7 @@
       <c r="J419" s="1"/>
       <c r="K419" s="2"/>
     </row>
-    <row r="420" spans="1:11">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -6850,7 +7977,7 @@
       <c r="J420" s="1"/>
       <c r="K420" s="2"/>
     </row>
-    <row r="421" spans="1:11">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -6863,7 +7990,7 @@
       <c r="J421" s="1"/>
       <c r="K421" s="2"/>
     </row>
-    <row r="422" spans="1:11">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -6876,7 +8003,7 @@
       <c r="J422" s="1"/>
       <c r="K422" s="2"/>
     </row>
-    <row r="423" spans="1:11">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -6889,7 +8016,7 @@
       <c r="J423" s="1"/>
       <c r="K423" s="2"/>
     </row>
-    <row r="424" spans="1:11">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -6902,7 +8029,7 @@
       <c r="J424" s="1"/>
       <c r="K424" s="2"/>
     </row>
-    <row r="425" spans="1:11">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -6915,7 +8042,7 @@
       <c r="J425" s="1"/>
       <c r="K425" s="2"/>
     </row>
-    <row r="426" spans="1:11">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -6928,7 +8055,7 @@
       <c r="J426" s="1"/>
       <c r="K426" s="2"/>
     </row>
-    <row r="427" spans="1:11">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -6941,7 +8068,7 @@
       <c r="J427" s="1"/>
       <c r="K427" s="2"/>
     </row>
-    <row r="428" spans="1:11">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -6954,7 +8081,7 @@
       <c r="J428" s="1"/>
       <c r="K428" s="2"/>
     </row>
-    <row r="429" spans="1:11">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -6967,7 +8094,7 @@
       <c r="J429" s="1"/>
       <c r="K429" s="2"/>
     </row>
-    <row r="430" spans="1:11">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -6980,7 +8107,7 @@
       <c r="J430" s="1"/>
       <c r="K430" s="2"/>
     </row>
-    <row r="431" spans="1:11">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -6993,7 +8120,7 @@
       <c r="J431" s="1"/>
       <c r="K431" s="2"/>
     </row>
-    <row r="432" spans="1:11">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -7006,7 +8133,7 @@
       <c r="J432" s="1"/>
       <c r="K432" s="2"/>
     </row>
-    <row r="433" spans="1:11">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -7019,7 +8146,7 @@
       <c r="J433" s="1"/>
       <c r="K433" s="2"/>
     </row>
-    <row r="434" spans="1:11">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -7032,7 +8159,7 @@
       <c r="J434" s="1"/>
       <c r="K434" s="2"/>
     </row>
-    <row r="435" spans="1:11">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -7045,7 +8172,7 @@
       <c r="J435" s="1"/>
       <c r="K435" s="2"/>
     </row>
-    <row r="436" spans="1:11">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -7058,7 +8185,7 @@
       <c r="J436" s="1"/>
       <c r="K436" s="2"/>
     </row>
-    <row r="437" spans="1:11">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -7071,7 +8198,7 @@
       <c r="J437" s="1"/>
       <c r="K437" s="2"/>
     </row>
-    <row r="438" spans="1:11">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -7084,7 +8211,7 @@
       <c r="J438" s="1"/>
       <c r="K438" s="2"/>
     </row>
-    <row r="439" spans="1:11">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -7097,7 +8224,7 @@
       <c r="J439" s="1"/>
       <c r="K439" s="2"/>
     </row>
-    <row r="440" spans="1:11">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -7110,7 +8237,7 @@
       <c r="J440" s="1"/>
       <c r="K440" s="2"/>
     </row>
-    <row r="441" spans="1:11">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -7123,7 +8250,7 @@
       <c r="J441" s="1"/>
       <c r="K441" s="2"/>
     </row>
-    <row r="442" spans="1:11">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -7136,7 +8263,7 @@
       <c r="J442" s="1"/>
       <c r="K442" s="2"/>
     </row>
-    <row r="443" spans="1:11">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -7149,7 +8276,7 @@
       <c r="J443" s="1"/>
       <c r="K443" s="2"/>
     </row>
-    <row r="444" spans="1:11">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -7162,7 +8289,7 @@
       <c r="J444" s="1"/>
       <c r="K444" s="2"/>
     </row>
-    <row r="445" spans="1:11">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -7175,7 +8302,7 @@
       <c r="J445" s="1"/>
       <c r="K445" s="2"/>
     </row>
-    <row r="446" spans="1:11">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -7188,7 +8315,7 @@
       <c r="J446" s="1"/>
       <c r="K446" s="2"/>
     </row>
-    <row r="447" spans="1:11">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -7201,7 +8328,7 @@
       <c r="J447" s="1"/>
       <c r="K447" s="2"/>
     </row>
-    <row r="448" spans="1:11">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -7214,7 +8341,7 @@
       <c r="J448" s="1"/>
       <c r="K448" s="2"/>
     </row>
-    <row r="449" spans="1:11">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -7227,7 +8354,7 @@
       <c r="J449" s="1"/>
       <c r="K449" s="2"/>
     </row>
-    <row r="450" spans="1:11">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -7240,7 +8367,7 @@
       <c r="J450" s="1"/>
       <c r="K450" s="2"/>
     </row>
-    <row r="451" spans="1:11">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -7253,7 +8380,7 @@
       <c r="J451" s="1"/>
       <c r="K451" s="2"/>
     </row>
-    <row r="452" spans="1:11">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -7266,7 +8393,7 @@
       <c r="J452" s="1"/>
       <c r="K452" s="2"/>
     </row>
-    <row r="453" spans="1:11">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -7279,7 +8406,7 @@
       <c r="J453" s="1"/>
       <c r="K453" s="2"/>
     </row>
-    <row r="454" spans="1:11">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -7292,7 +8419,7 @@
       <c r="J454" s="1"/>
       <c r="K454" s="2"/>
     </row>
-    <row r="455" spans="1:11">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -7305,7 +8432,7 @@
       <c r="J455" s="1"/>
       <c r="K455" s="2"/>
     </row>
-    <row r="456" spans="1:11">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -7318,7 +8445,7 @@
       <c r="J456" s="1"/>
       <c r="K456" s="2"/>
     </row>
-    <row r="457" spans="1:11">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -7331,7 +8458,7 @@
       <c r="J457" s="1"/>
       <c r="K457" s="2"/>
     </row>
-    <row r="458" spans="1:11">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -7344,7 +8471,7 @@
       <c r="J458" s="1"/>
       <c r="K458" s="2"/>
     </row>
-    <row r="459" spans="1:11">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -7357,7 +8484,7 @@
       <c r="J459" s="1"/>
       <c r="K459" s="2"/>
     </row>
-    <row r="460" spans="1:11">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -7370,7 +8497,7 @@
       <c r="J460" s="1"/>
       <c r="K460" s="2"/>
     </row>
-    <row r="461" spans="1:11">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -7383,7 +8510,7 @@
       <c r="J461" s="1"/>
       <c r="K461" s="2"/>
     </row>
-    <row r="462" spans="1:11">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -7396,7 +8523,7 @@
       <c r="J462" s="1"/>
       <c r="K462" s="2"/>
     </row>
-    <row r="463" spans="1:11">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -7409,7 +8536,7 @@
       <c r="J463" s="1"/>
       <c r="K463" s="2"/>
     </row>
-    <row r="464" spans="1:11">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -7422,7 +8549,7 @@
       <c r="J464" s="1"/>
       <c r="K464" s="1"/>
     </row>
-    <row r="465" spans="1:11">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -7435,7 +8562,7 @@
       <c r="J465" s="1"/>
       <c r="K465" s="2"/>
     </row>
-    <row r="466" spans="1:11">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -7448,7 +8575,7 @@
       <c r="J466" s="1"/>
       <c r="K466" s="2"/>
     </row>
-    <row r="467" spans="1:11">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -7461,7 +8588,7 @@
       <c r="J467" s="1"/>
       <c r="K467" s="2"/>
     </row>
-    <row r="468" spans="1:11">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -7474,7 +8601,7 @@
       <c r="J468" s="1"/>
       <c r="K468" s="2"/>
     </row>
-    <row r="469" spans="1:11">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -7487,7 +8614,7 @@
       <c r="J469" s="1"/>
       <c r="K469" s="2"/>
     </row>
-    <row r="470" spans="1:11">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -7500,7 +8627,7 @@
       <c r="J470" s="1"/>
       <c r="K470" s="2"/>
     </row>
-    <row r="471" spans="1:11">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -7513,7 +8640,7 @@
       <c r="J471" s="1"/>
       <c r="K471" s="2"/>
     </row>
-    <row r="472" spans="1:11">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -7526,7 +8653,7 @@
       <c r="J472" s="1"/>
       <c r="K472" s="2"/>
     </row>
-    <row r="473" spans="1:11">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -7539,7 +8666,7 @@
       <c r="J473" s="1"/>
       <c r="K473" s="2"/>
     </row>
-    <row r="474" spans="1:11">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -7552,7 +8679,7 @@
       <c r="J474" s="1"/>
       <c r="K474" s="2"/>
     </row>
-    <row r="475" spans="1:11">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -7565,7 +8692,7 @@
       <c r="J475" s="1"/>
       <c r="K475" s="2"/>
     </row>
-    <row r="476" spans="1:11">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -7578,7 +8705,7 @@
       <c r="J476" s="1"/>
       <c r="K476" s="2"/>
     </row>
-    <row r="477" spans="1:11">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -7591,7 +8718,7 @@
       <c r="J477" s="1"/>
       <c r="K477" s="2"/>
     </row>
-    <row r="478" spans="1:11">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -7604,7 +8731,7 @@
       <c r="J478" s="1"/>
       <c r="K478" s="2"/>
     </row>
-    <row r="479" spans="1:11">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -7617,7 +8744,7 @@
       <c r="J479" s="1"/>
       <c r="K479" s="2"/>
     </row>
-    <row r="480" spans="1:11">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -7630,7 +8757,7 @@
       <c r="J480" s="1"/>
       <c r="K480" s="2"/>
     </row>
-    <row r="481" spans="1:11">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -7643,7 +8770,7 @@
       <c r="J481" s="1"/>
       <c r="K481" s="2"/>
     </row>
-    <row r="482" spans="1:11">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -7656,7 +8783,7 @@
       <c r="J482" s="1"/>
       <c r="K482" s="2"/>
     </row>
-    <row r="483" spans="1:11">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -7669,7 +8796,7 @@
       <c r="J483" s="1"/>
       <c r="K483" s="2"/>
     </row>
-    <row r="484" spans="1:11">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -7682,7 +8809,7 @@
       <c r="J484" s="1"/>
       <c r="K484" s="2"/>
     </row>
-    <row r="485" spans="1:11">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -7695,7 +8822,7 @@
       <c r="J485" s="1"/>
       <c r="K485" s="2"/>
     </row>
-    <row r="486" spans="1:11">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -7708,7 +8835,7 @@
       <c r="J486" s="1"/>
       <c r="K486" s="2"/>
     </row>
-    <row r="487" spans="1:11">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -7721,7 +8848,7 @@
       <c r="J487" s="1"/>
       <c r="K487" s="2"/>
     </row>
-    <row r="488" spans="1:11">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -7734,7 +8861,7 @@
       <c r="J488" s="1"/>
       <c r="K488" s="2"/>
     </row>
-    <row r="489" spans="1:11">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -7747,7 +8874,7 @@
       <c r="J489" s="1"/>
       <c r="K489" s="2"/>
     </row>
-    <row r="490" spans="1:11">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -7760,7 +8887,7 @@
       <c r="J490" s="1"/>
       <c r="K490" s="2"/>
     </row>
-    <row r="491" spans="1:11">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -7773,7 +8900,7 @@
       <c r="J491" s="1"/>
       <c r="K491" s="2"/>
     </row>
-    <row r="492" spans="1:11">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -7786,7 +8913,7 @@
       <c r="J492" s="1"/>
       <c r="K492" s="2"/>
     </row>
-    <row r="493" spans="1:11">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -7799,7 +8926,7 @@
       <c r="J493" s="1"/>
       <c r="K493" s="2"/>
     </row>
-    <row r="494" spans="1:11">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -7812,7 +8939,7 @@
       <c r="J494" s="1"/>
       <c r="K494" s="2"/>
     </row>
-    <row r="495" spans="1:11">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -7825,7 +8952,7 @@
       <c r="J495" s="1"/>
       <c r="K495" s="2"/>
     </row>
-    <row r="496" spans="1:11">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -7838,7 +8965,7 @@
       <c r="J496" s="1"/>
       <c r="K496" s="2"/>
     </row>
-    <row r="497" spans="1:11">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -7851,7 +8978,7 @@
       <c r="J497" s="1"/>
       <c r="K497" s="2"/>
     </row>
-    <row r="498" spans="1:11">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -7864,7 +8991,7 @@
       <c r="J498" s="1"/>
       <c r="K498" s="2"/>
     </row>
-    <row r="499" spans="1:11">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -7877,7 +9004,7 @@
       <c r="J499" s="1"/>
       <c r="K499" s="2"/>
     </row>
-    <row r="500" spans="1:11">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -7890,7 +9017,7 @@
       <c r="J500" s="1"/>
       <c r="K500" s="2"/>
     </row>
-    <row r="501" spans="1:11">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -7904,6 +9031,44 @@
       <c r="K501" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G25:G26"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
